--- a/VSCO.xlsx
+++ b/VSCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329D57FB-231B-44A3-89A7-0855B27009B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB0C5F7-1D2F-4FCC-A28D-03FBA111C547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{61D1022A-C31F-435A-9D37-34AD93DFA669}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{61D1022A-C31F-435A-9D37-34AD93DFA669}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +205,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -226,6 +224,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,21 +259,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -600,33 +612,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CFA482-CA7A-4B54-B6C7-E27157E10658}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>34.99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="3">
@@ -636,11 +649,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="3">
@@ -648,11 +661,11 @@
         <v>2750.9694340999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="3">
@@ -662,8 +675,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="3">
@@ -674,8 +687,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="3">
@@ -693,24 +706,25 @@
   <dimension ref="A1:CH420"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29:J29"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -736,8 +750,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="3"/>
@@ -785,8 +799,8 @@
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="3"/>
@@ -834,7 +848,7 @@
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -876,8 +890,8 @@
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="3"/>
@@ -925,8 +939,8 @@
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="3"/>
@@ -974,8 +988,8 @@
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="3"/>
@@ -1023,8 +1037,8 @@
       <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="3"/>
@@ -1072,8 +1086,8 @@
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="3"/>
@@ -1121,7 +1135,7 @@
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1190,7 +1204,7 @@
       <c r="AO11" s="3"/>
       <c r="AP11" s="3"/>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1232,8 +1246,8 @@
       <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="3"/>
@@ -1281,8 +1295,8 @@
       <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="3"/>
@@ -1330,8 +1344,8 @@
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="3"/>
@@ -1423,7 +1437,7 @@
       <c r="CG15" s="3"/>
       <c r="CH15" s="3"/>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1516,8 +1530,8 @@
       <c r="CG16" s="3"/>
       <c r="CH16" s="3"/>
     </row>
-    <row r="17" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="3"/>
@@ -1609,8 +1623,8 @@
       <c r="CG17" s="3"/>
       <c r="CH17" s="3"/>
     </row>
-    <row r="18" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="3">
@@ -1722,8 +1736,8 @@
       <c r="CG18" s="3"/>
       <c r="CH18" s="3"/>
     </row>
-    <row r="19" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="3"/>
@@ -1815,8 +1829,8 @@
       <c r="CG19" s="3"/>
       <c r="CH19" s="3"/>
     </row>
-    <row r="20" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="3">
@@ -1928,8 +1942,8 @@
       <c r="CG20" s="3"/>
       <c r="CH20" s="3"/>
     </row>
-    <row r="21" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="3"/>
@@ -2021,8 +2035,8 @@
       <c r="CG21" s="3"/>
       <c r="CH21" s="3"/>
     </row>
-    <row r="22" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="3"/>
@@ -2114,8 +2128,8 @@
       <c r="CG22" s="3"/>
       <c r="CH22" s="3"/>
     </row>
-    <row r="23" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="3">
@@ -2227,8 +2241,8 @@
       <c r="CG23" s="3"/>
       <c r="CH23" s="3"/>
     </row>
-    <row r="24" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="3"/>
@@ -2320,8 +2334,8 @@
       <c r="CG24" s="3"/>
       <c r="CH24" s="3"/>
     </row>
-    <row r="25" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="3">
@@ -2433,8 +2447,8 @@
       <c r="CG25" s="3"/>
       <c r="CH25" s="3"/>
     </row>
-    <row r="26" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="3"/>
@@ -2526,8 +2540,8 @@
       <c r="CG26" s="3"/>
       <c r="CH26" s="3"/>
     </row>
-    <row r="27" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="3">
@@ -2639,7 +2653,7 @@
       <c r="CG27" s="3"/>
       <c r="CH27" s="3"/>
     </row>
-    <row r="28" spans="2:86" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:86" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2725,39 +2739,39 @@
       <c r="CG28" s="3"/>
       <c r="CH28" s="3"/>
     </row>
-    <row r="29" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="2" t="e">
+      <c r="C29" s="7" t="e">
         <f t="shared" ref="C29:D29" si="12">+C27/C30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="2" t="e">
+      <c r="D29" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="7">
         <f>+E27/E30</f>
         <v>-0.92207792207792205</v>
       </c>
-      <c r="F29" s="2" t="e">
+      <c r="F29" s="7" t="e">
         <f t="shared" ref="F29:J29" si="13">+F27/F30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="2" t="e">
+      <c r="G29" s="7" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="2" t="e">
+      <c r="H29" s="7" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="7">
         <f t="shared" si="13"/>
         <v>-0.70886075949367089</v>
       </c>
-      <c r="J29" s="2" t="e">
+      <c r="J29" s="7" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2838,8 +2852,8 @@
       <c r="CG29" s="3"/>
       <c r="CH29" s="3"/>
     </row>
-    <row r="30" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3"/>
@@ -2931,7 +2945,7 @@
       <c r="CG30" s="3"/>
       <c r="CH30" s="3"/>
     </row>
-    <row r="31" spans="2:86" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:86" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -3017,8 +3031,8 @@
       <c r="CG31" s="3"/>
       <c r="CH31" s="3"/>
     </row>
-    <row r="32" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="3"/>
@@ -3118,8 +3132,8 @@
       <c r="CG32" s="3"/>
       <c r="CH32" s="3"/>
     </row>
-    <row r="33" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="3"/>
@@ -3219,8 +3233,8 @@
       <c r="CG33" s="3"/>
       <c r="CH33" s="3"/>
     </row>
-    <row r="34" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
+    <row r="34" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="3"/>
@@ -3320,8 +3334,8 @@
       <c r="CG34" s="3"/>
       <c r="CH34" s="3"/>
     </row>
-    <row r="35" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+    <row r="35" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="3"/>
@@ -3421,8 +3435,8 @@
       <c r="CG35" s="3"/>
       <c r="CH35" s="3"/>
     </row>
-    <row r="36" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
+    <row r="36" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="3"/>
@@ -3522,8 +3536,8 @@
       <c r="CG36" s="3"/>
       <c r="CH36" s="3"/>
     </row>
-    <row r="37" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+    <row r="37" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="3"/>
@@ -3611,8 +3625,8 @@
       <c r="CG37" s="3"/>
       <c r="CH37" s="3"/>
     </row>
-    <row r="38" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+    <row r="38" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="3"/>
@@ -3700,8 +3714,8 @@
       <c r="CG38" s="3"/>
       <c r="CH38" s="3"/>
     </row>
-    <row r="39" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
+    <row r="39" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="3"/>
@@ -3789,7 +3803,7 @@
       <c r="CG39" s="3"/>
       <c r="CH39" s="3"/>
     </row>
-    <row r="40" spans="2:86" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:86" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3875,7 +3889,7 @@
       <c r="CG40" s="3"/>
       <c r="CH40" s="3"/>
     </row>
-    <row r="41" spans="2:86" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:86" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3961,7 +3975,7 @@
       <c r="CG41" s="3"/>
       <c r="CH41" s="3"/>
     </row>
-    <row r="42" spans="2:86" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:86" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4047,7 +4061,7 @@
       <c r="CG42" s="3"/>
       <c r="CH42" s="3"/>
     </row>
-    <row r="43" spans="2:86" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:86" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4133,7 +4147,7 @@
       <c r="CG43" s="3"/>
       <c r="CH43" s="3"/>
     </row>
-    <row r="44" spans="2:86" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:86" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4219,7 +4233,7 @@
       <c r="CG44" s="3"/>
       <c r="CH44" s="3"/>
     </row>
-    <row r="45" spans="2:86" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:86" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4305,7 +4319,7 @@
       <c r="CG45" s="3"/>
       <c r="CH45" s="3"/>
     </row>
-    <row r="46" spans="2:86" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:86" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4391,7 +4405,7 @@
       <c r="CG46" s="3"/>
       <c r="CH46" s="3"/>
     </row>
-    <row r="47" spans="2:86" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:86" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4477,7 +4491,7 @@
       <c r="CG47" s="3"/>
       <c r="CH47" s="3"/>
     </row>
-    <row r="48" spans="2:86" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:86" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4563,7 +4577,7 @@
       <c r="CG48" s="3"/>
       <c r="CH48" s="3"/>
     </row>
-    <row r="49" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4649,7 +4663,7 @@
       <c r="CG49" s="3"/>
       <c r="CH49" s="3"/>
     </row>
-    <row r="50" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4735,7 +4749,7 @@
       <c r="CG50" s="3"/>
       <c r="CH50" s="3"/>
     </row>
-    <row r="51" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4821,7 +4835,7 @@
       <c r="CG51" s="3"/>
       <c r="CH51" s="3"/>
     </row>
-    <row r="52" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4907,7 +4921,7 @@
       <c r="CG52" s="3"/>
       <c r="CH52" s="3"/>
     </row>
-    <row r="53" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4993,7 +5007,7 @@
       <c r="CG53" s="3"/>
       <c r="CH53" s="3"/>
     </row>
-    <row r="54" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5079,7 +5093,7 @@
       <c r="CG54" s="3"/>
       <c r="CH54" s="3"/>
     </row>
-    <row r="55" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -5165,7 +5179,7 @@
       <c r="CG55" s="3"/>
       <c r="CH55" s="3"/>
     </row>
-    <row r="56" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5251,7 +5265,7 @@
       <c r="CG56" s="3"/>
       <c r="CH56" s="3"/>
     </row>
-    <row r="57" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5337,7 +5351,7 @@
       <c r="CG57" s="3"/>
       <c r="CH57" s="3"/>
     </row>
-    <row r="58" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5423,7 +5437,7 @@
       <c r="CG58" s="3"/>
       <c r="CH58" s="3"/>
     </row>
-    <row r="59" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5509,7 +5523,7 @@
       <c r="CG59" s="3"/>
       <c r="CH59" s="3"/>
     </row>
-    <row r="60" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5595,7 +5609,7 @@
       <c r="CG60" s="3"/>
       <c r="CH60" s="3"/>
     </row>
-    <row r="61" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5681,7 +5695,7 @@
       <c r="CG61" s="3"/>
       <c r="CH61" s="3"/>
     </row>
-    <row r="62" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5767,7 +5781,7 @@
       <c r="CG62" s="3"/>
       <c r="CH62" s="3"/>
     </row>
-    <row r="63" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5853,7 +5867,7 @@
       <c r="CG63" s="3"/>
       <c r="CH63" s="3"/>
     </row>
-    <row r="64" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5939,7 +5953,7 @@
       <c r="CG64" s="3"/>
       <c r="CH64" s="3"/>
     </row>
-    <row r="65" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -6025,7 +6039,7 @@
       <c r="CG65" s="3"/>
       <c r="CH65" s="3"/>
     </row>
-    <row r="66" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -6111,7 +6125,7 @@
       <c r="CG66" s="3"/>
       <c r="CH66" s="3"/>
     </row>
-    <row r="67" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -6197,7 +6211,7 @@
       <c r="CG67" s="3"/>
       <c r="CH67" s="3"/>
     </row>
-    <row r="68" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -6283,7 +6297,7 @@
       <c r="CG68" s="3"/>
       <c r="CH68" s="3"/>
     </row>
-    <row r="69" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -6369,7 +6383,7 @@
       <c r="CG69" s="3"/>
       <c r="CH69" s="3"/>
     </row>
-    <row r="70" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -6455,7 +6469,7 @@
       <c r="CG70" s="3"/>
       <c r="CH70" s="3"/>
     </row>
-    <row r="71" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -6541,7 +6555,7 @@
       <c r="CG71" s="3"/>
       <c r="CH71" s="3"/>
     </row>
-    <row r="72" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -6627,7 +6641,7 @@
       <c r="CG72" s="3"/>
       <c r="CH72" s="3"/>
     </row>
-    <row r="73" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -6713,7 +6727,7 @@
       <c r="CG73" s="3"/>
       <c r="CH73" s="3"/>
     </row>
-    <row r="74" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -6799,7 +6813,7 @@
       <c r="CG74" s="3"/>
       <c r="CH74" s="3"/>
     </row>
-    <row r="75" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -6885,7 +6899,7 @@
       <c r="CG75" s="3"/>
       <c r="CH75" s="3"/>
     </row>
-    <row r="76" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -6971,7 +6985,7 @@
       <c r="CG76" s="3"/>
       <c r="CH76" s="3"/>
     </row>
-    <row r="77" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -7057,7 +7071,7 @@
       <c r="CG77" s="3"/>
       <c r="CH77" s="3"/>
     </row>
-    <row r="78" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -7143,7 +7157,7 @@
       <c r="CG78" s="3"/>
       <c r="CH78" s="3"/>
     </row>
-    <row r="79" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -7229,7 +7243,7 @@
       <c r="CG79" s="3"/>
       <c r="CH79" s="3"/>
     </row>
-    <row r="80" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -7315,7 +7329,7 @@
       <c r="CG80" s="3"/>
       <c r="CH80" s="3"/>
     </row>
-    <row r="81" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -7401,7 +7415,7 @@
       <c r="CG81" s="3"/>
       <c r="CH81" s="3"/>
     </row>
-    <row r="82" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -7487,7 +7501,7 @@
       <c r="CG82" s="3"/>
       <c r="CH82" s="3"/>
     </row>
-    <row r="83" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -7573,7 +7587,7 @@
       <c r="CG83" s="3"/>
       <c r="CH83" s="3"/>
     </row>
-    <row r="84" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -7659,7 +7673,7 @@
       <c r="CG84" s="3"/>
       <c r="CH84" s="3"/>
     </row>
-    <row r="85" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -7745,7 +7759,7 @@
       <c r="CG85" s="3"/>
       <c r="CH85" s="3"/>
     </row>
-    <row r="86" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -7831,7 +7845,7 @@
       <c r="CG86" s="3"/>
       <c r="CH86" s="3"/>
     </row>
-    <row r="87" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -7917,7 +7931,7 @@
       <c r="CG87" s="3"/>
       <c r="CH87" s="3"/>
     </row>
-    <row r="88" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -8003,7 +8017,7 @@
       <c r="CG88" s="3"/>
       <c r="CH88" s="3"/>
     </row>
-    <row r="89" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -8089,7 +8103,7 @@
       <c r="CG89" s="3"/>
       <c r="CH89" s="3"/>
     </row>
-    <row r="90" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -8175,7 +8189,7 @@
       <c r="CG90" s="3"/>
       <c r="CH90" s="3"/>
     </row>
-    <row r="91" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -8261,7 +8275,7 @@
       <c r="CG91" s="3"/>
       <c r="CH91" s="3"/>
     </row>
-    <row r="92" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -8347,7 +8361,7 @@
       <c r="CG92" s="3"/>
       <c r="CH92" s="3"/>
     </row>
-    <row r="93" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -8433,7 +8447,7 @@
       <c r="CG93" s="3"/>
       <c r="CH93" s="3"/>
     </row>
-    <row r="94" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -8519,7 +8533,7 @@
       <c r="CG94" s="3"/>
       <c r="CH94" s="3"/>
     </row>
-    <row r="95" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -8605,7 +8619,7 @@
       <c r="CG95" s="3"/>
       <c r="CH95" s="3"/>
     </row>
-    <row r="96" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -8691,7 +8705,7 @@
       <c r="CG96" s="3"/>
       <c r="CH96" s="3"/>
     </row>
-    <row r="97" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -8777,7 +8791,7 @@
       <c r="CG97" s="3"/>
       <c r="CH97" s="3"/>
     </row>
-    <row r="98" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -8863,7 +8877,7 @@
       <c r="CG98" s="3"/>
       <c r="CH98" s="3"/>
     </row>
-    <row r="99" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -8949,7 +8963,7 @@
       <c r="CG99" s="3"/>
       <c r="CH99" s="3"/>
     </row>
-    <row r="100" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -9035,7 +9049,7 @@
       <c r="CG100" s="3"/>
       <c r="CH100" s="3"/>
     </row>
-    <row r="101" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -9121,7 +9135,7 @@
       <c r="CG101" s="3"/>
       <c r="CH101" s="3"/>
     </row>
-    <row r="102" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -9207,7 +9221,7 @@
       <c r="CG102" s="3"/>
       <c r="CH102" s="3"/>
     </row>
-    <row r="103" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -9293,7 +9307,7 @@
       <c r="CG103" s="3"/>
       <c r="CH103" s="3"/>
     </row>
-    <row r="104" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -9379,7 +9393,7 @@
       <c r="CG104" s="3"/>
       <c r="CH104" s="3"/>
     </row>
-    <row r="105" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -9465,7 +9479,7 @@
       <c r="CG105" s="3"/>
       <c r="CH105" s="3"/>
     </row>
-    <row r="106" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -9551,7 +9565,7 @@
       <c r="CG106" s="3"/>
       <c r="CH106" s="3"/>
     </row>
-    <row r="107" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -9637,7 +9651,7 @@
       <c r="CG107" s="3"/>
       <c r="CH107" s="3"/>
     </row>
-    <row r="108" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -9723,7 +9737,7 @@
       <c r="CG108" s="3"/>
       <c r="CH108" s="3"/>
     </row>
-    <row r="109" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -9809,7 +9823,7 @@
       <c r="CG109" s="3"/>
       <c r="CH109" s="3"/>
     </row>
-    <row r="110" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -9895,7 +9909,7 @@
       <c r="CG110" s="3"/>
       <c r="CH110" s="3"/>
     </row>
-    <row r="111" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -9981,7 +9995,7 @@
       <c r="CG111" s="3"/>
       <c r="CH111" s="3"/>
     </row>
-    <row r="112" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -10067,7 +10081,7 @@
       <c r="CG112" s="3"/>
       <c r="CH112" s="3"/>
     </row>
-    <row r="113" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -10153,7 +10167,7 @@
       <c r="CG113" s="3"/>
       <c r="CH113" s="3"/>
     </row>
-    <row r="114" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -10239,7 +10253,7 @@
       <c r="CG114" s="3"/>
       <c r="CH114" s="3"/>
     </row>
-    <row r="115" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -10325,7 +10339,7 @@
       <c r="CG115" s="3"/>
       <c r="CH115" s="3"/>
     </row>
-    <row r="116" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -10411,7 +10425,7 @@
       <c r="CG116" s="3"/>
       <c r="CH116" s="3"/>
     </row>
-    <row r="117" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -10497,7 +10511,7 @@
       <c r="CG117" s="3"/>
       <c r="CH117" s="3"/>
     </row>
-    <row r="118" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -10583,7 +10597,7 @@
       <c r="CG118" s="3"/>
       <c r="CH118" s="3"/>
     </row>
-    <row r="119" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -10669,7 +10683,7 @@
       <c r="CG119" s="3"/>
       <c r="CH119" s="3"/>
     </row>
-    <row r="120" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -10755,7 +10769,7 @@
       <c r="CG120" s="3"/>
       <c r="CH120" s="3"/>
     </row>
-    <row r="121" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -10841,7 +10855,7 @@
       <c r="CG121" s="3"/>
       <c r="CH121" s="3"/>
     </row>
-    <row r="122" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -10927,7 +10941,7 @@
       <c r="CG122" s="3"/>
       <c r="CH122" s="3"/>
     </row>
-    <row r="123" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -11013,7 +11027,7 @@
       <c r="CG123" s="3"/>
       <c r="CH123" s="3"/>
     </row>
-    <row r="124" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -11099,7 +11113,7 @@
       <c r="CG124" s="3"/>
       <c r="CH124" s="3"/>
     </row>
-    <row r="125" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -11185,7 +11199,7 @@
       <c r="CG125" s="3"/>
       <c r="CH125" s="3"/>
     </row>
-    <row r="126" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -11271,7 +11285,7 @@
       <c r="CG126" s="3"/>
       <c r="CH126" s="3"/>
     </row>
-    <row r="127" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -11357,7 +11371,7 @@
       <c r="CG127" s="3"/>
       <c r="CH127" s="3"/>
     </row>
-    <row r="128" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -11443,7 +11457,7 @@
       <c r="CG128" s="3"/>
       <c r="CH128" s="3"/>
     </row>
-    <row r="129" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -11529,7 +11543,7 @@
       <c r="CG129" s="3"/>
       <c r="CH129" s="3"/>
     </row>
-    <row r="130" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -11615,7 +11629,7 @@
       <c r="CG130" s="3"/>
       <c r="CH130" s="3"/>
     </row>
-    <row r="131" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -11701,7 +11715,7 @@
       <c r="CG131" s="3"/>
       <c r="CH131" s="3"/>
     </row>
-    <row r="132" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -11787,7 +11801,7 @@
       <c r="CG132" s="3"/>
       <c r="CH132" s="3"/>
     </row>
-    <row r="133" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -11873,7 +11887,7 @@
       <c r="CG133" s="3"/>
       <c r="CH133" s="3"/>
     </row>
-    <row r="134" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -11959,7 +11973,7 @@
       <c r="CG134" s="3"/>
       <c r="CH134" s="3"/>
     </row>
-    <row r="135" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -12045,7 +12059,7 @@
       <c r="CG135" s="3"/>
       <c r="CH135" s="3"/>
     </row>
-    <row r="136" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -12131,7 +12145,7 @@
       <c r="CG136" s="3"/>
       <c r="CH136" s="3"/>
     </row>
-    <row r="137" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -12217,7 +12231,7 @@
       <c r="CG137" s="3"/>
       <c r="CH137" s="3"/>
     </row>
-    <row r="138" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -12303,7 +12317,7 @@
       <c r="CG138" s="3"/>
       <c r="CH138" s="3"/>
     </row>
-    <row r="139" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -12389,7 +12403,7 @@
       <c r="CG139" s="3"/>
       <c r="CH139" s="3"/>
     </row>
-    <row r="140" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -12475,7 +12489,7 @@
       <c r="CG140" s="3"/>
       <c r="CH140" s="3"/>
     </row>
-    <row r="141" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -12561,7 +12575,7 @@
       <c r="CG141" s="3"/>
       <c r="CH141" s="3"/>
     </row>
-    <row r="142" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -12647,7 +12661,7 @@
       <c r="CG142" s="3"/>
       <c r="CH142" s="3"/>
     </row>
-    <row r="143" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -12733,7 +12747,7 @@
       <c r="CG143" s="3"/>
       <c r="CH143" s="3"/>
     </row>
-    <row r="144" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -12819,7 +12833,7 @@
       <c r="CG144" s="3"/>
       <c r="CH144" s="3"/>
     </row>
-    <row r="145" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -12905,7 +12919,7 @@
       <c r="CG145" s="3"/>
       <c r="CH145" s="3"/>
     </row>
-    <row r="146" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -12991,7 +13005,7 @@
       <c r="CG146" s="3"/>
       <c r="CH146" s="3"/>
     </row>
-    <row r="147" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -13077,7 +13091,7 @@
       <c r="CG147" s="3"/>
       <c r="CH147" s="3"/>
     </row>
-    <row r="148" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -13163,7 +13177,7 @@
       <c r="CG148" s="3"/>
       <c r="CH148" s="3"/>
     </row>
-    <row r="149" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -13249,7 +13263,7 @@
       <c r="CG149" s="3"/>
       <c r="CH149" s="3"/>
     </row>
-    <row r="150" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -13335,7 +13349,7 @@
       <c r="CG150" s="3"/>
       <c r="CH150" s="3"/>
     </row>
-    <row r="151" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -13421,7 +13435,7 @@
       <c r="CG151" s="3"/>
       <c r="CH151" s="3"/>
     </row>
-    <row r="152" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -13507,7 +13521,7 @@
       <c r="CG152" s="3"/>
       <c r="CH152" s="3"/>
     </row>
-    <row r="153" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -13593,7 +13607,7 @@
       <c r="CG153" s="3"/>
       <c r="CH153" s="3"/>
     </row>
-    <row r="154" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -13679,7 +13693,7 @@
       <c r="CG154" s="3"/>
       <c r="CH154" s="3"/>
     </row>
-    <row r="155" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -13765,7 +13779,7 @@
       <c r="CG155" s="3"/>
       <c r="CH155" s="3"/>
     </row>
-    <row r="156" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -13851,7 +13865,7 @@
       <c r="CG156" s="3"/>
       <c r="CH156" s="3"/>
     </row>
-    <row r="157" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -13937,7 +13951,7 @@
       <c r="CG157" s="3"/>
       <c r="CH157" s="3"/>
     </row>
-    <row r="158" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -14023,7 +14037,7 @@
       <c r="CG158" s="3"/>
       <c r="CH158" s="3"/>
     </row>
-    <row r="159" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -14109,7 +14123,7 @@
       <c r="CG159" s="3"/>
       <c r="CH159" s="3"/>
     </row>
-    <row r="160" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -14195,7 +14209,7 @@
       <c r="CG160" s="3"/>
       <c r="CH160" s="3"/>
     </row>
-    <row r="161" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -14281,7 +14295,7 @@
       <c r="CG161" s="3"/>
       <c r="CH161" s="3"/>
     </row>
-    <row r="162" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -14367,7 +14381,7 @@
       <c r="CG162" s="3"/>
       <c r="CH162" s="3"/>
     </row>
-    <row r="163" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -14453,7 +14467,7 @@
       <c r="CG163" s="3"/>
       <c r="CH163" s="3"/>
     </row>
-    <row r="164" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -14539,7 +14553,7 @@
       <c r="CG164" s="3"/>
       <c r="CH164" s="3"/>
     </row>
-    <row r="165" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -14625,7 +14639,7 @@
       <c r="CG165" s="3"/>
       <c r="CH165" s="3"/>
     </row>
-    <row r="166" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -14711,7 +14725,7 @@
       <c r="CG166" s="3"/>
       <c r="CH166" s="3"/>
     </row>
-    <row r="167" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -14797,7 +14811,7 @@
       <c r="CG167" s="3"/>
       <c r="CH167" s="3"/>
     </row>
-    <row r="168" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -14883,7 +14897,7 @@
       <c r="CG168" s="3"/>
       <c r="CH168" s="3"/>
     </row>
-    <row r="169" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -14969,7 +14983,7 @@
       <c r="CG169" s="3"/>
       <c r="CH169" s="3"/>
     </row>
-    <row r="170" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -15055,7 +15069,7 @@
       <c r="CG170" s="3"/>
       <c r="CH170" s="3"/>
     </row>
-    <row r="171" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -15141,7 +15155,7 @@
       <c r="CG171" s="3"/>
       <c r="CH171" s="3"/>
     </row>
-    <row r="172" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -15227,7 +15241,7 @@
       <c r="CG172" s="3"/>
       <c r="CH172" s="3"/>
     </row>
-    <row r="173" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -15313,7 +15327,7 @@
       <c r="CG173" s="3"/>
       <c r="CH173" s="3"/>
     </row>
-    <row r="174" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -15399,7 +15413,7 @@
       <c r="CG174" s="3"/>
       <c r="CH174" s="3"/>
     </row>
-    <row r="175" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -15485,7 +15499,7 @@
       <c r="CG175" s="3"/>
       <c r="CH175" s="3"/>
     </row>
-    <row r="176" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -15571,7 +15585,7 @@
       <c r="CG176" s="3"/>
       <c r="CH176" s="3"/>
     </row>
-    <row r="177" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -15657,7 +15671,7 @@
       <c r="CG177" s="3"/>
       <c r="CH177" s="3"/>
     </row>
-    <row r="178" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -15743,7 +15757,7 @@
       <c r="CG178" s="3"/>
       <c r="CH178" s="3"/>
     </row>
-    <row r="179" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -15829,7 +15843,7 @@
       <c r="CG179" s="3"/>
       <c r="CH179" s="3"/>
     </row>
-    <row r="180" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -15915,7 +15929,7 @@
       <c r="CG180" s="3"/>
       <c r="CH180" s="3"/>
     </row>
-    <row r="181" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -16001,7 +16015,7 @@
       <c r="CG181" s="3"/>
       <c r="CH181" s="3"/>
     </row>
-    <row r="182" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -16087,7 +16101,7 @@
       <c r="CG182" s="3"/>
       <c r="CH182" s="3"/>
     </row>
-    <row r="183" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -16173,7 +16187,7 @@
       <c r="CG183" s="3"/>
       <c r="CH183" s="3"/>
     </row>
-    <row r="184" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -16259,7 +16273,7 @@
       <c r="CG184" s="3"/>
       <c r="CH184" s="3"/>
     </row>
-    <row r="185" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -16345,7 +16359,7 @@
       <c r="CG185" s="3"/>
       <c r="CH185" s="3"/>
     </row>
-    <row r="186" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -16431,7 +16445,7 @@
       <c r="CG186" s="3"/>
       <c r="CH186" s="3"/>
     </row>
-    <row r="187" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -16517,7 +16531,7 @@
       <c r="CG187" s="3"/>
       <c r="CH187" s="3"/>
     </row>
-    <row r="188" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -16603,7 +16617,7 @@
       <c r="CG188" s="3"/>
       <c r="CH188" s="3"/>
     </row>
-    <row r="189" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -16689,7 +16703,7 @@
       <c r="CG189" s="3"/>
       <c r="CH189" s="3"/>
     </row>
-    <row r="190" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -16775,7 +16789,7 @@
       <c r="CG190" s="3"/>
       <c r="CH190" s="3"/>
     </row>
-    <row r="191" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -16861,7 +16875,7 @@
       <c r="CG191" s="3"/>
       <c r="CH191" s="3"/>
     </row>
-    <row r="192" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -16947,7 +16961,7 @@
       <c r="CG192" s="3"/>
       <c r="CH192" s="3"/>
     </row>
-    <row r="193" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -17033,7 +17047,7 @@
       <c r="CG193" s="3"/>
       <c r="CH193" s="3"/>
     </row>
-    <row r="194" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -17119,7 +17133,7 @@
       <c r="CG194" s="3"/>
       <c r="CH194" s="3"/>
     </row>
-    <row r="195" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -17205,7 +17219,7 @@
       <c r="CG195" s="3"/>
       <c r="CH195" s="3"/>
     </row>
-    <row r="196" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -17291,7 +17305,7 @@
       <c r="CG196" s="3"/>
       <c r="CH196" s="3"/>
     </row>
-    <row r="197" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -17377,7 +17391,7 @@
       <c r="CG197" s="3"/>
       <c r="CH197" s="3"/>
     </row>
-    <row r="198" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -17463,7 +17477,7 @@
       <c r="CG198" s="3"/>
       <c r="CH198" s="3"/>
     </row>
-    <row r="199" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -17549,7 +17563,7 @@
       <c r="CG199" s="3"/>
       <c r="CH199" s="3"/>
     </row>
-    <row r="200" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -17635,7 +17649,7 @@
       <c r="CG200" s="3"/>
       <c r="CH200" s="3"/>
     </row>
-    <row r="201" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -17721,7 +17735,7 @@
       <c r="CG201" s="3"/>
       <c r="CH201" s="3"/>
     </row>
-    <row r="202" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -17807,7 +17821,7 @@
       <c r="CG202" s="3"/>
       <c r="CH202" s="3"/>
     </row>
-    <row r="203" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -17893,7 +17907,7 @@
       <c r="CG203" s="3"/>
       <c r="CH203" s="3"/>
     </row>
-    <row r="204" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -17979,7 +17993,7 @@
       <c r="CG204" s="3"/>
       <c r="CH204" s="3"/>
     </row>
-    <row r="205" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -18065,7 +18079,7 @@
       <c r="CG205" s="3"/>
       <c r="CH205" s="3"/>
     </row>
-    <row r="206" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -18151,7 +18165,7 @@
       <c r="CG206" s="3"/>
       <c r="CH206" s="3"/>
     </row>
-    <row r="207" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -18237,7 +18251,7 @@
       <c r="CG207" s="3"/>
       <c r="CH207" s="3"/>
     </row>
-    <row r="208" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -18323,7 +18337,7 @@
       <c r="CG208" s="3"/>
       <c r="CH208" s="3"/>
     </row>
-    <row r="209" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -18409,7 +18423,7 @@
       <c r="CG209" s="3"/>
       <c r="CH209" s="3"/>
     </row>
-    <row r="210" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -18495,7 +18509,7 @@
       <c r="CG210" s="3"/>
       <c r="CH210" s="3"/>
     </row>
-    <row r="211" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -18581,7 +18595,7 @@
       <c r="CG211" s="3"/>
       <c r="CH211" s="3"/>
     </row>
-    <row r="212" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -18667,7 +18681,7 @@
       <c r="CG212" s="3"/>
       <c r="CH212" s="3"/>
     </row>
-    <row r="213" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -18753,7 +18767,7 @@
       <c r="CG213" s="3"/>
       <c r="CH213" s="3"/>
     </row>
-    <row r="214" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -18839,7 +18853,7 @@
       <c r="CG214" s="3"/>
       <c r="CH214" s="3"/>
     </row>
-    <row r="215" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -18925,7 +18939,7 @@
       <c r="CG215" s="3"/>
       <c r="CH215" s="3"/>
     </row>
-    <row r="216" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -19011,7 +19025,7 @@
       <c r="CG216" s="3"/>
       <c r="CH216" s="3"/>
     </row>
-    <row r="217" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -19097,7 +19111,7 @@
       <c r="CG217" s="3"/>
       <c r="CH217" s="3"/>
     </row>
-    <row r="218" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -19183,7 +19197,7 @@
       <c r="CG218" s="3"/>
       <c r="CH218" s="3"/>
     </row>
-    <row r="219" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -19269,7 +19283,7 @@
       <c r="CG219" s="3"/>
       <c r="CH219" s="3"/>
     </row>
-    <row r="220" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -19355,7 +19369,7 @@
       <c r="CG220" s="3"/>
       <c r="CH220" s="3"/>
     </row>
-    <row r="221" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -19441,7 +19455,7 @@
       <c r="CG221" s="3"/>
       <c r="CH221" s="3"/>
     </row>
-    <row r="222" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -19527,7 +19541,7 @@
       <c r="CG222" s="3"/>
       <c r="CH222" s="3"/>
     </row>
-    <row r="223" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -19613,7 +19627,7 @@
       <c r="CG223" s="3"/>
       <c r="CH223" s="3"/>
     </row>
-    <row r="224" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -19699,7 +19713,7 @@
       <c r="CG224" s="3"/>
       <c r="CH224" s="3"/>
     </row>
-    <row r="225" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -19785,7 +19799,7 @@
       <c r="CG225" s="3"/>
       <c r="CH225" s="3"/>
     </row>
-    <row r="226" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -19871,7 +19885,7 @@
       <c r="CG226" s="3"/>
       <c r="CH226" s="3"/>
     </row>
-    <row r="227" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -19957,7 +19971,7 @@
       <c r="CG227" s="3"/>
       <c r="CH227" s="3"/>
     </row>
-    <row r="228" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -20043,7 +20057,7 @@
       <c r="CG228" s="3"/>
       <c r="CH228" s="3"/>
     </row>
-    <row r="229" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -20129,7 +20143,7 @@
       <c r="CG229" s="3"/>
       <c r="CH229" s="3"/>
     </row>
-    <row r="230" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -20215,7 +20229,7 @@
       <c r="CG230" s="3"/>
       <c r="CH230" s="3"/>
     </row>
-    <row r="231" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -20301,7 +20315,7 @@
       <c r="CG231" s="3"/>
       <c r="CH231" s="3"/>
     </row>
-    <row r="232" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -20387,7 +20401,7 @@
       <c r="CG232" s="3"/>
       <c r="CH232" s="3"/>
     </row>
-    <row r="233" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -20473,7 +20487,7 @@
       <c r="CG233" s="3"/>
       <c r="CH233" s="3"/>
     </row>
-    <row r="234" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -20559,7 +20573,7 @@
       <c r="CG234" s="3"/>
       <c r="CH234" s="3"/>
     </row>
-    <row r="235" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -20645,7 +20659,7 @@
       <c r="CG235" s="3"/>
       <c r="CH235" s="3"/>
     </row>
-    <row r="236" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -20731,7 +20745,7 @@
       <c r="CG236" s="3"/>
       <c r="CH236" s="3"/>
     </row>
-    <row r="237" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -20817,7 +20831,7 @@
       <c r="CG237" s="3"/>
       <c r="CH237" s="3"/>
     </row>
-    <row r="238" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -20903,7 +20917,7 @@
       <c r="CG238" s="3"/>
       <c r="CH238" s="3"/>
     </row>
-    <row r="239" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -20989,7 +21003,7 @@
       <c r="CG239" s="3"/>
       <c r="CH239" s="3"/>
     </row>
-    <row r="240" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -21075,7 +21089,7 @@
       <c r="CG240" s="3"/>
       <c r="CH240" s="3"/>
     </row>
-    <row r="241" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -21161,7 +21175,7 @@
       <c r="CG241" s="3"/>
       <c r="CH241" s="3"/>
     </row>
-    <row r="242" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -21247,7 +21261,7 @@
       <c r="CG242" s="3"/>
       <c r="CH242" s="3"/>
     </row>
-    <row r="243" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -21333,7 +21347,7 @@
       <c r="CG243" s="3"/>
       <c r="CH243" s="3"/>
     </row>
-    <row r="244" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -21419,7 +21433,7 @@
       <c r="CG244" s="3"/>
       <c r="CH244" s="3"/>
     </row>
-    <row r="245" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -21505,7 +21519,7 @@
       <c r="CG245" s="3"/>
       <c r="CH245" s="3"/>
     </row>
-    <row r="246" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -21591,7 +21605,7 @@
       <c r="CG246" s="3"/>
       <c r="CH246" s="3"/>
     </row>
-    <row r="247" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -21677,7 +21691,7 @@
       <c r="CG247" s="3"/>
       <c r="CH247" s="3"/>
     </row>
-    <row r="248" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -21763,7 +21777,7 @@
       <c r="CG248" s="3"/>
       <c r="CH248" s="3"/>
     </row>
-    <row r="249" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -21849,7 +21863,7 @@
       <c r="CG249" s="3"/>
       <c r="CH249" s="3"/>
     </row>
-    <row r="250" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -21935,7 +21949,7 @@
       <c r="CG250" s="3"/>
       <c r="CH250" s="3"/>
     </row>
-    <row r="251" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -22021,7 +22035,7 @@
       <c r="CG251" s="3"/>
       <c r="CH251" s="3"/>
     </row>
-    <row r="252" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -22107,7 +22121,7 @@
       <c r="CG252" s="3"/>
       <c r="CH252" s="3"/>
     </row>
-    <row r="253" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -22193,7 +22207,7 @@
       <c r="CG253" s="3"/>
       <c r="CH253" s="3"/>
     </row>
-    <row r="254" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -22279,7 +22293,7 @@
       <c r="CG254" s="3"/>
       <c r="CH254" s="3"/>
     </row>
-    <row r="255" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -22365,7 +22379,7 @@
       <c r="CG255" s="3"/>
       <c r="CH255" s="3"/>
     </row>
-    <row r="256" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -22451,7 +22465,7 @@
       <c r="CG256" s="3"/>
       <c r="CH256" s="3"/>
     </row>
-    <row r="257" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -22537,7 +22551,7 @@
       <c r="CG257" s="3"/>
       <c r="CH257" s="3"/>
     </row>
-    <row r="258" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -22623,7 +22637,7 @@
       <c r="CG258" s="3"/>
       <c r="CH258" s="3"/>
     </row>
-    <row r="259" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -22709,7 +22723,7 @@
       <c r="CG259" s="3"/>
       <c r="CH259" s="3"/>
     </row>
-    <row r="260" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -22795,7 +22809,7 @@
       <c r="CG260" s="3"/>
       <c r="CH260" s="3"/>
     </row>
-    <row r="261" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -22881,7 +22895,7 @@
       <c r="CG261" s="3"/>
       <c r="CH261" s="3"/>
     </row>
-    <row r="262" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -22967,7 +22981,7 @@
       <c r="CG262" s="3"/>
       <c r="CH262" s="3"/>
     </row>
-    <row r="263" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -23053,7 +23067,7 @@
       <c r="CG263" s="3"/>
       <c r="CH263" s="3"/>
     </row>
-    <row r="264" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -23139,7 +23153,7 @@
       <c r="CG264" s="3"/>
       <c r="CH264" s="3"/>
     </row>
-    <row r="265" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -23225,7 +23239,7 @@
       <c r="CG265" s="3"/>
       <c r="CH265" s="3"/>
     </row>
-    <row r="266" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -23311,7 +23325,7 @@
       <c r="CG266" s="3"/>
       <c r="CH266" s="3"/>
     </row>
-    <row r="267" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -23397,7 +23411,7 @@
       <c r="CG267" s="3"/>
       <c r="CH267" s="3"/>
     </row>
-    <row r="268" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -23483,7 +23497,7 @@
       <c r="CG268" s="3"/>
       <c r="CH268" s="3"/>
     </row>
-    <row r="269" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -23569,7 +23583,7 @@
       <c r="CG269" s="3"/>
       <c r="CH269" s="3"/>
     </row>
-    <row r="270" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -23655,7 +23669,7 @@
       <c r="CG270" s="3"/>
       <c r="CH270" s="3"/>
     </row>
-    <row r="271" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -23741,7 +23755,7 @@
       <c r="CG271" s="3"/>
       <c r="CH271" s="3"/>
     </row>
-    <row r="272" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -23827,7 +23841,7 @@
       <c r="CG272" s="3"/>
       <c r="CH272" s="3"/>
     </row>
-    <row r="273" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -23913,7 +23927,7 @@
       <c r="CG273" s="3"/>
       <c r="CH273" s="3"/>
     </row>
-    <row r="274" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -23999,7 +24013,7 @@
       <c r="CG274" s="3"/>
       <c r="CH274" s="3"/>
     </row>
-    <row r="275" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -24085,7 +24099,7 @@
       <c r="CG275" s="3"/>
       <c r="CH275" s="3"/>
     </row>
-    <row r="276" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -24171,7 +24185,7 @@
       <c r="CG276" s="3"/>
       <c r="CH276" s="3"/>
     </row>
-    <row r="277" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -24257,7 +24271,7 @@
       <c r="CG277" s="3"/>
       <c r="CH277" s="3"/>
     </row>
-    <row r="278" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -24343,7 +24357,7 @@
       <c r="CG278" s="3"/>
       <c r="CH278" s="3"/>
     </row>
-    <row r="279" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -24429,7 +24443,7 @@
       <c r="CG279" s="3"/>
       <c r="CH279" s="3"/>
     </row>
-    <row r="280" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -24515,7 +24529,7 @@
       <c r="CG280" s="3"/>
       <c r="CH280" s="3"/>
     </row>
-    <row r="281" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -24601,7 +24615,7 @@
       <c r="CG281" s="3"/>
       <c r="CH281" s="3"/>
     </row>
-    <row r="282" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -24687,7 +24701,7 @@
       <c r="CG282" s="3"/>
       <c r="CH282" s="3"/>
     </row>
-    <row r="283" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -24773,7 +24787,7 @@
       <c r="CG283" s="3"/>
       <c r="CH283" s="3"/>
     </row>
-    <row r="284" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -24859,7 +24873,7 @@
       <c r="CG284" s="3"/>
       <c r="CH284" s="3"/>
     </row>
-    <row r="285" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -24945,7 +24959,7 @@
       <c r="CG285" s="3"/>
       <c r="CH285" s="3"/>
     </row>
-    <row r="286" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -25031,7 +25045,7 @@
       <c r="CG286" s="3"/>
       <c r="CH286" s="3"/>
     </row>
-    <row r="287" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -25117,7 +25131,7 @@
       <c r="CG287" s="3"/>
       <c r="CH287" s="3"/>
     </row>
-    <row r="288" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -25203,7 +25217,7 @@
       <c r="CG288" s="3"/>
       <c r="CH288" s="3"/>
     </row>
-    <row r="289" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -25289,7 +25303,7 @@
       <c r="CG289" s="3"/>
       <c r="CH289" s="3"/>
     </row>
-    <row r="290" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -25375,7 +25389,7 @@
       <c r="CG290" s="3"/>
       <c r="CH290" s="3"/>
     </row>
-    <row r="291" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -25461,7 +25475,7 @@
       <c r="CG291" s="3"/>
       <c r="CH291" s="3"/>
     </row>
-    <row r="292" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -25547,7 +25561,7 @@
       <c r="CG292" s="3"/>
       <c r="CH292" s="3"/>
     </row>
-    <row r="293" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -25633,7 +25647,7 @@
       <c r="CG293" s="3"/>
       <c r="CH293" s="3"/>
     </row>
-    <row r="294" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -25719,7 +25733,7 @@
       <c r="CG294" s="3"/>
       <c r="CH294" s="3"/>
     </row>
-    <row r="295" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -25805,7 +25819,7 @@
       <c r="CG295" s="3"/>
       <c r="CH295" s="3"/>
     </row>
-    <row r="296" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -25891,7 +25905,7 @@
       <c r="CG296" s="3"/>
       <c r="CH296" s="3"/>
     </row>
-    <row r="297" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -25977,7 +25991,7 @@
       <c r="CG297" s="3"/>
       <c r="CH297" s="3"/>
     </row>
-    <row r="298" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -26063,7 +26077,7 @@
       <c r="CG298" s="3"/>
       <c r="CH298" s="3"/>
     </row>
-    <row r="299" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -26149,7 +26163,7 @@
       <c r="CG299" s="3"/>
       <c r="CH299" s="3"/>
     </row>
-    <row r="300" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -26235,7 +26249,7 @@
       <c r="CG300" s="3"/>
       <c r="CH300" s="3"/>
     </row>
-    <row r="301" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -26321,7 +26335,7 @@
       <c r="CG301" s="3"/>
       <c r="CH301" s="3"/>
     </row>
-    <row r="302" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -26407,7 +26421,7 @@
       <c r="CG302" s="3"/>
       <c r="CH302" s="3"/>
     </row>
-    <row r="303" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -26493,7 +26507,7 @@
       <c r="CG303" s="3"/>
       <c r="CH303" s="3"/>
     </row>
-    <row r="304" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -26579,7 +26593,7 @@
       <c r="CG304" s="3"/>
       <c r="CH304" s="3"/>
     </row>
-    <row r="305" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -26665,7 +26679,7 @@
       <c r="CG305" s="3"/>
       <c r="CH305" s="3"/>
     </row>
-    <row r="306" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -26751,7 +26765,7 @@
       <c r="CG306" s="3"/>
       <c r="CH306" s="3"/>
     </row>
-    <row r="307" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -26837,7 +26851,7 @@
       <c r="CG307" s="3"/>
       <c r="CH307" s="3"/>
     </row>
-    <row r="308" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -26923,7 +26937,7 @@
       <c r="CG308" s="3"/>
       <c r="CH308" s="3"/>
     </row>
-    <row r="309" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -27009,7 +27023,7 @@
       <c r="CG309" s="3"/>
       <c r="CH309" s="3"/>
     </row>
-    <row r="310" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -27095,7 +27109,7 @@
       <c r="CG310" s="3"/>
       <c r="CH310" s="3"/>
     </row>
-    <row r="311" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -27181,7 +27195,7 @@
       <c r="CG311" s="3"/>
       <c r="CH311" s="3"/>
     </row>
-    <row r="312" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -27267,7 +27281,7 @@
       <c r="CG312" s="3"/>
       <c r="CH312" s="3"/>
     </row>
-    <row r="313" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -27353,7 +27367,7 @@
       <c r="CG313" s="3"/>
       <c r="CH313" s="3"/>
     </row>
-    <row r="314" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -27439,7 +27453,7 @@
       <c r="CG314" s="3"/>
       <c r="CH314" s="3"/>
     </row>
-    <row r="315" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -27525,7 +27539,7 @@
       <c r="CG315" s="3"/>
       <c r="CH315" s="3"/>
     </row>
-    <row r="316" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -27611,7 +27625,7 @@
       <c r="CG316" s="3"/>
       <c r="CH316" s="3"/>
     </row>
-    <row r="317" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -27697,7 +27711,7 @@
       <c r="CG317" s="3"/>
       <c r="CH317" s="3"/>
     </row>
-    <row r="318" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -27783,7 +27797,7 @@
       <c r="CG318" s="3"/>
       <c r="CH318" s="3"/>
     </row>
-    <row r="319" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -27869,7 +27883,7 @@
       <c r="CG319" s="3"/>
       <c r="CH319" s="3"/>
     </row>
-    <row r="320" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -27955,7 +27969,7 @@
       <c r="CG320" s="3"/>
       <c r="CH320" s="3"/>
     </row>
-    <row r="321" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -28041,7 +28055,7 @@
       <c r="CG321" s="3"/>
       <c r="CH321" s="3"/>
     </row>
-    <row r="322" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -28127,7 +28141,7 @@
       <c r="CG322" s="3"/>
       <c r="CH322" s="3"/>
     </row>
-    <row r="323" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -28213,7 +28227,7 @@
       <c r="CG323" s="3"/>
       <c r="CH323" s="3"/>
     </row>
-    <row r="324" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -28299,7 +28313,7 @@
       <c r="CG324" s="3"/>
       <c r="CH324" s="3"/>
     </row>
-    <row r="325" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -28385,7 +28399,7 @@
       <c r="CG325" s="3"/>
       <c r="CH325" s="3"/>
     </row>
-    <row r="326" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -28471,7 +28485,7 @@
       <c r="CG326" s="3"/>
       <c r="CH326" s="3"/>
     </row>
-    <row r="327" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -28557,7 +28571,7 @@
       <c r="CG327" s="3"/>
       <c r="CH327" s="3"/>
     </row>
-    <row r="328" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -28643,7 +28657,7 @@
       <c r="CG328" s="3"/>
       <c r="CH328" s="3"/>
     </row>
-    <row r="329" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -28729,7 +28743,7 @@
       <c r="CG329" s="3"/>
       <c r="CH329" s="3"/>
     </row>
-    <row r="330" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -28815,7 +28829,7 @@
       <c r="CG330" s="3"/>
       <c r="CH330" s="3"/>
     </row>
-    <row r="331" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -28901,7 +28915,7 @@
       <c r="CG331" s="3"/>
       <c r="CH331" s="3"/>
     </row>
-    <row r="332" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -28987,7 +29001,7 @@
       <c r="CG332" s="3"/>
       <c r="CH332" s="3"/>
     </row>
-    <row r="333" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -29073,7 +29087,7 @@
       <c r="CG333" s="3"/>
       <c r="CH333" s="3"/>
     </row>
-    <row r="334" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -29159,7 +29173,7 @@
       <c r="CG334" s="3"/>
       <c r="CH334" s="3"/>
     </row>
-    <row r="335" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -29245,7 +29259,7 @@
       <c r="CG335" s="3"/>
       <c r="CH335" s="3"/>
     </row>
-    <row r="336" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -29331,7 +29345,7 @@
       <c r="CG336" s="3"/>
       <c r="CH336" s="3"/>
     </row>
-    <row r="337" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -29417,7 +29431,7 @@
       <c r="CG337" s="3"/>
       <c r="CH337" s="3"/>
     </row>
-    <row r="338" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -29503,7 +29517,7 @@
       <c r="CG338" s="3"/>
       <c r="CH338" s="3"/>
     </row>
-    <row r="339" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -29589,7 +29603,7 @@
       <c r="CG339" s="3"/>
       <c r="CH339" s="3"/>
     </row>
-    <row r="340" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -29675,7 +29689,7 @@
       <c r="CG340" s="3"/>
       <c r="CH340" s="3"/>
     </row>
-    <row r="341" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -29761,7 +29775,7 @@
       <c r="CG341" s="3"/>
       <c r="CH341" s="3"/>
     </row>
-    <row r="342" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -29847,7 +29861,7 @@
       <c r="CG342" s="3"/>
       <c r="CH342" s="3"/>
     </row>
-    <row r="343" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -29933,7 +29947,7 @@
       <c r="CG343" s="3"/>
       <c r="CH343" s="3"/>
     </row>
-    <row r="344" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -30019,7 +30033,7 @@
       <c r="CG344" s="3"/>
       <c r="CH344" s="3"/>
     </row>
-    <row r="345" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -30105,7 +30119,7 @@
       <c r="CG345" s="3"/>
       <c r="CH345" s="3"/>
     </row>
-    <row r="346" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -30191,7 +30205,7 @@
       <c r="CG346" s="3"/>
       <c r="CH346" s="3"/>
     </row>
-    <row r="347" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -30277,7 +30291,7 @@
       <c r="CG347" s="3"/>
       <c r="CH347" s="3"/>
     </row>
-    <row r="348" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -30363,7 +30377,7 @@
       <c r="CG348" s="3"/>
       <c r="CH348" s="3"/>
     </row>
-    <row r="349" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -30449,7 +30463,7 @@
       <c r="CG349" s="3"/>
       <c r="CH349" s="3"/>
     </row>
-    <row r="350" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -30535,7 +30549,7 @@
       <c r="CG350" s="3"/>
       <c r="CH350" s="3"/>
     </row>
-    <row r="351" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -30621,7 +30635,7 @@
       <c r="CG351" s="3"/>
       <c r="CH351" s="3"/>
     </row>
-    <row r="352" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -30707,7 +30721,7 @@
       <c r="CG352" s="3"/>
       <c r="CH352" s="3"/>
     </row>
-    <row r="353" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -30793,7 +30807,7 @@
       <c r="CG353" s="3"/>
       <c r="CH353" s="3"/>
     </row>
-    <row r="354" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -30879,7 +30893,7 @@
       <c r="CG354" s="3"/>
       <c r="CH354" s="3"/>
     </row>
-    <row r="355" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -30965,7 +30979,7 @@
       <c r="CG355" s="3"/>
       <c r="CH355" s="3"/>
     </row>
-    <row r="356" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -31051,7 +31065,7 @@
       <c r="CG356" s="3"/>
       <c r="CH356" s="3"/>
     </row>
-    <row r="357" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -31137,7 +31151,7 @@
       <c r="CG357" s="3"/>
       <c r="CH357" s="3"/>
     </row>
-    <row r="358" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -31223,7 +31237,7 @@
       <c r="CG358" s="3"/>
       <c r="CH358" s="3"/>
     </row>
-    <row r="359" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -31309,7 +31323,7 @@
       <c r="CG359" s="3"/>
       <c r="CH359" s="3"/>
     </row>
-    <row r="360" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -31395,7 +31409,7 @@
       <c r="CG360" s="3"/>
       <c r="CH360" s="3"/>
     </row>
-    <row r="361" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -31481,7 +31495,7 @@
       <c r="CG361" s="3"/>
       <c r="CH361" s="3"/>
     </row>
-    <row r="362" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -31567,7 +31581,7 @@
       <c r="CG362" s="3"/>
       <c r="CH362" s="3"/>
     </row>
-    <row r="363" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -31653,7 +31667,7 @@
       <c r="CG363" s="3"/>
       <c r="CH363" s="3"/>
     </row>
-    <row r="364" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -31739,7 +31753,7 @@
       <c r="CG364" s="3"/>
       <c r="CH364" s="3"/>
     </row>
-    <row r="365" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -31825,7 +31839,7 @@
       <c r="CG365" s="3"/>
       <c r="CH365" s="3"/>
     </row>
-    <row r="366" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -31911,7 +31925,7 @@
       <c r="CG366" s="3"/>
       <c r="CH366" s="3"/>
     </row>
-    <row r="367" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -31997,7 +32011,7 @@
       <c r="CG367" s="3"/>
       <c r="CH367" s="3"/>
     </row>
-    <row r="368" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -32083,7 +32097,7 @@
       <c r="CG368" s="3"/>
       <c r="CH368" s="3"/>
     </row>
-    <row r="369" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -32169,7 +32183,7 @@
       <c r="CG369" s="3"/>
       <c r="CH369" s="3"/>
     </row>
-    <row r="370" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -32255,7 +32269,7 @@
       <c r="CG370" s="3"/>
       <c r="CH370" s="3"/>
     </row>
-    <row r="371" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -32341,7 +32355,7 @@
       <c r="CG371" s="3"/>
       <c r="CH371" s="3"/>
     </row>
-    <row r="372" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -32427,7 +32441,7 @@
       <c r="CG372" s="3"/>
       <c r="CH372" s="3"/>
     </row>
-    <row r="373" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -32513,7 +32527,7 @@
       <c r="CG373" s="3"/>
       <c r="CH373" s="3"/>
     </row>
-    <row r="374" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -32599,7 +32613,7 @@
       <c r="CG374" s="3"/>
       <c r="CH374" s="3"/>
     </row>
-    <row r="375" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -32685,7 +32699,7 @@
       <c r="CG375" s="3"/>
       <c r="CH375" s="3"/>
     </row>
-    <row r="376" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -32771,7 +32785,7 @@
       <c r="CG376" s="3"/>
       <c r="CH376" s="3"/>
     </row>
-    <row r="377" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -32857,7 +32871,7 @@
       <c r="CG377" s="3"/>
       <c r="CH377" s="3"/>
     </row>
-    <row r="378" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -32943,7 +32957,7 @@
       <c r="CG378" s="3"/>
       <c r="CH378" s="3"/>
     </row>
-    <row r="379" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -33029,7 +33043,7 @@
       <c r="CG379" s="3"/>
       <c r="CH379" s="3"/>
     </row>
-    <row r="380" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -33115,7 +33129,7 @@
       <c r="CG380" s="3"/>
       <c r="CH380" s="3"/>
     </row>
-    <row r="381" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -33201,7 +33215,7 @@
       <c r="CG381" s="3"/>
       <c r="CH381" s="3"/>
     </row>
-    <row r="382" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -33287,7 +33301,7 @@
       <c r="CG382" s="3"/>
       <c r="CH382" s="3"/>
     </row>
-    <row r="383" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -33373,7 +33387,7 @@
       <c r="CG383" s="3"/>
       <c r="CH383" s="3"/>
     </row>
-    <row r="384" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -33459,7 +33473,7 @@
       <c r="CG384" s="3"/>
       <c r="CH384" s="3"/>
     </row>
-    <row r="385" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -33545,7 +33559,7 @@
       <c r="CG385" s="3"/>
       <c r="CH385" s="3"/>
     </row>
-    <row r="386" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -33631,7 +33645,7 @@
       <c r="CG386" s="3"/>
       <c r="CH386" s="3"/>
     </row>
-    <row r="387" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -33717,7 +33731,7 @@
       <c r="CG387" s="3"/>
       <c r="CH387" s="3"/>
     </row>
-    <row r="388" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -33803,7 +33817,7 @@
       <c r="CG388" s="3"/>
       <c r="CH388" s="3"/>
     </row>
-    <row r="389" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -33889,7 +33903,7 @@
       <c r="CG389" s="3"/>
       <c r="CH389" s="3"/>
     </row>
-    <row r="390" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -33975,7 +33989,7 @@
       <c r="CG390" s="3"/>
       <c r="CH390" s="3"/>
     </row>
-    <row r="391" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -34061,7 +34075,7 @@
       <c r="CG391" s="3"/>
       <c r="CH391" s="3"/>
     </row>
-    <row r="392" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -34147,7 +34161,7 @@
       <c r="CG392" s="3"/>
       <c r="CH392" s="3"/>
     </row>
-    <row r="393" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -34233,7 +34247,7 @@
       <c r="CG393" s="3"/>
       <c r="CH393" s="3"/>
     </row>
-    <row r="394" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -34319,7 +34333,7 @@
       <c r="CG394" s="3"/>
       <c r="CH394" s="3"/>
     </row>
-    <row r="395" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -34405,7 +34419,7 @@
       <c r="CG395" s="3"/>
       <c r="CH395" s="3"/>
     </row>
-    <row r="396" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -34491,7 +34505,7 @@
       <c r="CG396" s="3"/>
       <c r="CH396" s="3"/>
     </row>
-    <row r="397" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -34577,7 +34591,7 @@
       <c r="CG397" s="3"/>
       <c r="CH397" s="3"/>
     </row>
-    <row r="398" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -34663,7 +34677,7 @@
       <c r="CG398" s="3"/>
       <c r="CH398" s="3"/>
     </row>
-    <row r="399" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -34749,7 +34763,7 @@
       <c r="CG399" s="3"/>
       <c r="CH399" s="3"/>
     </row>
-    <row r="400" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -34835,7 +34849,7 @@
       <c r="CG400" s="3"/>
       <c r="CH400" s="3"/>
     </row>
-    <row r="401" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -34921,7 +34935,7 @@
       <c r="CG401" s="3"/>
       <c r="CH401" s="3"/>
     </row>
-    <row r="402" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -35007,7 +35021,7 @@
       <c r="CG402" s="3"/>
       <c r="CH402" s="3"/>
     </row>
-    <row r="403" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -35093,7 +35107,7 @@
       <c r="CG403" s="3"/>
       <c r="CH403" s="3"/>
     </row>
-    <row r="404" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -35179,7 +35193,7 @@
       <c r="CG404" s="3"/>
       <c r="CH404" s="3"/>
     </row>
-    <row r="405" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -35265,7 +35279,7 @@
       <c r="CG405" s="3"/>
       <c r="CH405" s="3"/>
     </row>
-    <row r="406" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -35351,7 +35365,7 @@
       <c r="CG406" s="3"/>
       <c r="CH406" s="3"/>
     </row>
-    <row r="407" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -35437,7 +35451,7 @@
       <c r="CG407" s="3"/>
       <c r="CH407" s="3"/>
     </row>
-    <row r="408" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -35523,7 +35537,7 @@
       <c r="CG408" s="3"/>
       <c r="CH408" s="3"/>
     </row>
-    <row r="409" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -35609,7 +35623,7 @@
       <c r="CG409" s="3"/>
       <c r="CH409" s="3"/>
     </row>
-    <row r="410" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -35695,7 +35709,7 @@
       <c r="CG410" s="3"/>
       <c r="CH410" s="3"/>
     </row>
-    <row r="411" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -35781,7 +35795,7 @@
       <c r="CG411" s="3"/>
       <c r="CH411" s="3"/>
     </row>
-    <row r="412" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -35867,7 +35881,7 @@
       <c r="CG412" s="3"/>
       <c r="CH412" s="3"/>
     </row>
-    <row r="413" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -35953,7 +35967,7 @@
       <c r="CG413" s="3"/>
       <c r="CH413" s="3"/>
     </row>
-    <row r="414" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -36039,7 +36053,7 @@
       <c r="CG414" s="3"/>
       <c r="CH414" s="3"/>
     </row>
-    <row r="415" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -36125,7 +36139,7 @@
       <c r="CG415" s="3"/>
       <c r="CH415" s="3"/>
     </row>
-    <row r="416" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -36211,7 +36225,7 @@
       <c r="CG416" s="3"/>
       <c r="CH416" s="3"/>
     </row>
-    <row r="417" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -36297,7 +36311,7 @@
       <c r="CG417" s="3"/>
       <c r="CH417" s="3"/>
     </row>
-    <row r="418" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -36383,7 +36397,7 @@
       <c r="CG418" s="3"/>
       <c r="CH418" s="3"/>
     </row>
-    <row r="419" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -36469,7 +36483,7 @@
       <c r="CG419" s="3"/>
       <c r="CH419" s="3"/>
     </row>
-    <row r="420" spans="3:86" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:86" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>

--- a/VSCO.xlsx
+++ b/VSCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB0C5F7-1D2F-4FCC-A28D-03FBA111C547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12B9C8F-0B46-4C43-91ED-DF977B361EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{61D1022A-C31F-435A-9D37-34AD93DFA669}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{61D1022A-C31F-435A-9D37-34AD93DFA669}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>VSCO</t>
   </si>
@@ -191,18 +191,39 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -259,21 +280,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -612,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CFA482-CA7A-4B54-B6C7-E27157E10658}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -635,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>34.99</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -643,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <v>78.621589999999998</v>
+        <v>80.164484999999999</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
+      <c r="J3" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -658,7 +683,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>2750.9694340999999</v>
+        <v>2094.6979930499997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -669,10 +694,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>161</v>
+        <v>188</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
+      <c r="J5" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -680,11 +705,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <f>4+1414</f>
-        <v>1418</v>
+        <f>4+1048</f>
+        <v>1052</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
+      <c r="J6" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -693,7 +718,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>4007.9694340999999</v>
+        <v>2958.6979930499997</v>
       </c>
     </row>
   </sheetData>
@@ -703,13 +728,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94876DA-AE76-4507-A1D0-03051E2114DC}">
-  <dimension ref="A1:CH420"/>
+  <dimension ref="A1:CK419"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -719,12 +744,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -749,1833 +774,2656 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="K2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:89" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
         <v>6833</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9">
+        <v>6849</v>
+      </c>
+      <c r="H3" s="9">
+        <v>6892</v>
+      </c>
+      <c r="I3" s="9">
         <v>6878</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-    </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>6905</v>
+      </c>
+      <c r="L3" s="9">
+        <v>6907</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="9"/>
+      <c r="BL3" s="9"/>
+      <c r="BM3" s="9"/>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="9"/>
+      <c r="BP3" s="9"/>
+      <c r="BQ3" s="9"/>
+      <c r="BR3" s="9"/>
+      <c r="BS3" s="9"/>
+      <c r="BT3" s="9"/>
+      <c r="BU3" s="9"/>
+      <c r="BV3" s="9"/>
+      <c r="BW3" s="9"/>
+      <c r="BX3" s="9"/>
+      <c r="BY3" s="9"/>
+      <c r="BZ3" s="9"/>
+      <c r="CA3" s="9"/>
+      <c r="CB3" s="9"/>
+      <c r="CC3" s="9"/>
+      <c r="CD3" s="9"/>
+      <c r="CE3" s="9"/>
+      <c r="CF3" s="9"/>
+      <c r="CG3" s="9"/>
+      <c r="CH3" s="9"/>
+      <c r="CI3" s="9"/>
+      <c r="CJ3" s="9"/>
+      <c r="CK3" s="9"/>
+    </row>
+    <row r="4" spans="1:89" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
         <v>5610</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9">
+        <v>5555</v>
+      </c>
+      <c r="H4" s="9">
+        <v>5507</v>
+      </c>
+      <c r="I4" s="9">
         <v>5468</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-    </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-    </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>5365</v>
+      </c>
+      <c r="L4" s="9">
+        <v>5305</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="9"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="9"/>
+      <c r="BQ4" s="9"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
+      <c r="BT4" s="9"/>
+      <c r="BU4" s="9"/>
+      <c r="BV4" s="9"/>
+      <c r="BW4" s="9"/>
+      <c r="BX4" s="9"/>
+      <c r="BY4" s="9"/>
+      <c r="BZ4" s="9"/>
+      <c r="CA4" s="9"/>
+      <c r="CB4" s="9"/>
+      <c r="CC4" s="9"/>
+      <c r="CD4" s="9"/>
+      <c r="CE4" s="9"/>
+      <c r="CF4" s="9"/>
+      <c r="CG4" s="9"/>
+      <c r="CH4" s="9"/>
+      <c r="CI4" s="9"/>
+      <c r="CJ4" s="9"/>
+      <c r="CK4" s="9"/>
+    </row>
+    <row r="5" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
         <v>812</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9">
+        <v>805</v>
+      </c>
+      <c r="H5" s="9">
+        <v>793</v>
+      </c>
+      <c r="I5" s="9">
         <v>808</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-    </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>772</v>
+      </c>
+      <c r="L5" s="9">
+        <v>763</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="9"/>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9"/>
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9"/>
+      <c r="CD5" s="9"/>
+      <c r="CE5" s="9"/>
+      <c r="CF5" s="9"/>
+      <c r="CG5" s="9"/>
+      <c r="CH5" s="9"/>
+      <c r="CI5" s="9"/>
+      <c r="CJ5" s="9"/>
+      <c r="CK5" s="9"/>
+    </row>
+    <row r="6" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
         <v>25</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9">
         <v>23</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-    </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="H6" s="9">
+        <v>23</v>
+      </c>
+      <c r="I6" s="9">
+        <v>23</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
+        <v>23</v>
+      </c>
+      <c r="L6" s="9">
+        <v>24</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="9"/>
+      <c r="BM6" s="9"/>
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="9"/>
+      <c r="BP6" s="9"/>
+      <c r="BQ6" s="9"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="9"/>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="9"/>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
+      <c r="BZ6" s="9"/>
+      <c r="CA6" s="9"/>
+      <c r="CB6" s="9"/>
+      <c r="CC6" s="9"/>
+      <c r="CD6" s="9"/>
+      <c r="CE6" s="9"/>
+      <c r="CF6" s="9"/>
+      <c r="CG6" s="9"/>
+      <c r="CH6" s="9"/>
+      <c r="CI6" s="9"/>
+      <c r="CJ6" s="9"/>
+      <c r="CK6" s="9"/>
+    </row>
+    <row r="7" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
         <v>72</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
+        <v>71</v>
+      </c>
+      <c r="H7" s="9">
         <v>70</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-    </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="I7" s="9">
+        <v>70</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <v>68</v>
+      </c>
+      <c r="L7" s="9">
+        <v>63</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="9"/>
+      <c r="BK7" s="9"/>
+      <c r="BL7" s="9"/>
+      <c r="BM7" s="9"/>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="9"/>
+      <c r="BQ7" s="9"/>
+      <c r="BR7" s="9"/>
+      <c r="BS7" s="9"/>
+      <c r="BT7" s="9"/>
+      <c r="BU7" s="9"/>
+      <c r="BV7" s="9"/>
+      <c r="BW7" s="9"/>
+      <c r="BX7" s="9"/>
+      <c r="BY7" s="9"/>
+      <c r="BZ7" s="9"/>
+      <c r="CA7" s="9"/>
+      <c r="CB7" s="9"/>
+      <c r="CC7" s="9"/>
+      <c r="CD7" s="9"/>
+      <c r="CE7" s="9"/>
+      <c r="CF7" s="9"/>
+      <c r="CG7" s="9"/>
+      <c r="CH7" s="9"/>
+      <c r="CI7" s="9"/>
+      <c r="CJ7" s="9"/>
+      <c r="CK7" s="9"/>
+    </row>
+    <row r="8" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <v>443</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
+        <v>473</v>
+      </c>
+      <c r="H8" s="9">
+        <v>481</v>
+      </c>
+      <c r="I8" s="9">
         <v>463</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-    </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9">
+        <v>510</v>
+      </c>
+      <c r="L8" s="9">
+        <v>521</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="9"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="9"/>
+      <c r="BV8" s="9"/>
+      <c r="BW8" s="9"/>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="9"/>
+      <c r="BZ8" s="9"/>
+      <c r="CA8" s="9"/>
+      <c r="CB8" s="9"/>
+      <c r="CC8" s="9"/>
+      <c r="CD8" s="9"/>
+      <c r="CE8" s="9"/>
+      <c r="CF8" s="9"/>
+      <c r="CG8" s="9"/>
+      <c r="CH8" s="9"/>
+      <c r="CI8" s="9"/>
+      <c r="CJ8" s="9"/>
+      <c r="CK8" s="9"/>
+    </row>
+    <row r="9" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
         <v>6</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
         <v>6</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-    </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+      <c r="H9" s="9">
+        <v>6</v>
+      </c>
+      <c r="I9" s="9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <v>5</v>
+      </c>
+      <c r="L9" s="9">
+        <v>5</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="9"/>
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="9"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="9"/>
+      <c r="BQ9" s="9"/>
+      <c r="BR9" s="9"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
+      <c r="BU9" s="9"/>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9"/>
+      <c r="BX9" s="9"/>
+      <c r="BY9" s="9"/>
+      <c r="BZ9" s="9"/>
+      <c r="CA9" s="9"/>
+      <c r="CB9" s="9"/>
+      <c r="CC9" s="9"/>
+      <c r="CD9" s="9"/>
+      <c r="CE9" s="9"/>
+      <c r="CF9" s="9"/>
+      <c r="CG9" s="9"/>
+      <c r="CH9" s="9"/>
+      <c r="CI9" s="9"/>
+      <c r="CJ9" s="9"/>
+      <c r="CK9" s="9"/>
+    </row>
+    <row r="10" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="6">
-        <f t="shared" ref="C11:H11" si="0">+SUM(C6:C10)</f>
+      <c r="C10" s="10">
+        <f t="shared" ref="C10:H10" si="0">+SUM(C5:C9)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>1358</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
+        <v>1378</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>1373</v>
+      </c>
+      <c r="I10" s="10">
+        <f>+SUM(I5:I9)</f>
+        <v>1370</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" ref="J10:N10" si="1">+SUM(J5:J9)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="6">
-        <f t="shared" si="0"/>
+      <c r="K10" s="10">
+        <f t="shared" si="1"/>
+        <v>1378</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="1"/>
+        <v>1376</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
-        <f>+SUM(I6:I10)</f>
-        <v>1370</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" ref="J11" si="1">+SUM(J6:J10)</f>
+      <c r="N10" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-    </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-    </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="9"/>
+      <c r="BK10" s="9"/>
+      <c r="BL10" s="9"/>
+      <c r="BM10" s="9"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="9"/>
+      <c r="BP10" s="9"/>
+      <c r="BQ10" s="9"/>
+      <c r="BR10" s="9"/>
+      <c r="BS10" s="9"/>
+      <c r="BT10" s="9"/>
+      <c r="BU10" s="9"/>
+      <c r="BV10" s="9"/>
+      <c r="BW10" s="9"/>
+      <c r="BX10" s="9"/>
+      <c r="BY10" s="9"/>
+      <c r="BZ10" s="9"/>
+      <c r="CA10" s="9"/>
+      <c r="CB10" s="9"/>
+      <c r="CC10" s="9"/>
+      <c r="CD10" s="9"/>
+      <c r="CE10" s="9"/>
+      <c r="CF10" s="9"/>
+      <c r="CG10" s="9"/>
+      <c r="CH10" s="9"/>
+      <c r="CI10" s="9"/>
+      <c r="CJ10" s="9"/>
+      <c r="CK10" s="9"/>
+    </row>
+    <row r="11" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+      <c r="BH11" s="9"/>
+      <c r="BI11" s="9"/>
+      <c r="BJ11" s="9"/>
+      <c r="BK11" s="9"/>
+      <c r="BL11" s="9"/>
+      <c r="BM11" s="9"/>
+      <c r="BN11" s="9"/>
+      <c r="BO11" s="9"/>
+      <c r="BP11" s="9"/>
+      <c r="BQ11" s="9"/>
+      <c r="BR11" s="9"/>
+      <c r="BS11" s="9"/>
+      <c r="BT11" s="9"/>
+      <c r="BU11" s="9"/>
+      <c r="BV11" s="9"/>
+      <c r="BW11" s="9"/>
+      <c r="BX11" s="9"/>
+      <c r="BY11" s="9"/>
+      <c r="BZ11" s="9"/>
+      <c r="CA11" s="9"/>
+      <c r="CB11" s="9"/>
+      <c r="CC11" s="9"/>
+      <c r="CD11" s="9"/>
+      <c r="CE11" s="9"/>
+      <c r="CF11" s="9"/>
+      <c r="CG11" s="9"/>
+      <c r="CH11" s="9"/>
+      <c r="CI11" s="9"/>
+      <c r="CJ11" s="9"/>
+      <c r="CK11" s="9"/>
+    </row>
+    <row r="12" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
         <v>723</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9">
+        <v>729</v>
+      </c>
+      <c r="H12" s="9">
+        <v>800</v>
+      </c>
+      <c r="I12" s="9">
         <v>738</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-    </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
+        <v>721</v>
+      </c>
+      <c r="L12" s="9">
+        <v>825</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="9"/>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="9"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="9"/>
+      <c r="BV12" s="9"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="9"/>
+      <c r="BY12" s="9"/>
+      <c r="BZ12" s="9"/>
+      <c r="CA12" s="9"/>
+      <c r="CB12" s="9"/>
+      <c r="CC12" s="9"/>
+      <c r="CD12" s="9"/>
+      <c r="CE12" s="9"/>
+      <c r="CF12" s="9"/>
+      <c r="CG12" s="9"/>
+      <c r="CH12" s="9"/>
+      <c r="CI12" s="9"/>
+      <c r="CJ12" s="9"/>
+      <c r="CK12" s="9"/>
+    </row>
+    <row r="13" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
         <v>382</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
+        <v>449</v>
+      </c>
+      <c r="H13" s="9">
+        <v>430</v>
+      </c>
+      <c r="I13" s="9">
         <v>411</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-    </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
+        <v>433</v>
+      </c>
+      <c r="L13" s="9">
+        <v>406</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9"/>
+      <c r="BL13" s="9"/>
+      <c r="BM13" s="9"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="9"/>
+      <c r="BP13" s="9"/>
+      <c r="BQ13" s="9"/>
+      <c r="BR13" s="9"/>
+      <c r="BS13" s="9"/>
+      <c r="BT13" s="9"/>
+      <c r="BU13" s="9"/>
+      <c r="BV13" s="9"/>
+      <c r="BW13" s="9"/>
+      <c r="BX13" s="9"/>
+      <c r="BY13" s="9"/>
+      <c r="BZ13" s="9"/>
+      <c r="CA13" s="9"/>
+      <c r="CB13" s="9"/>
+      <c r="CC13" s="9"/>
+      <c r="CD13" s="9"/>
+      <c r="CE13" s="9"/>
+      <c r="CF13" s="9"/>
+      <c r="CG13" s="9"/>
+      <c r="CH13" s="9"/>
+      <c r="CI13" s="9"/>
+      <c r="CJ13" s="9"/>
+      <c r="CK13" s="9"/>
+    </row>
+    <row r="14" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
         <v>160</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9">
+        <v>181</v>
+      </c>
+      <c r="H14" s="9">
+        <v>187</v>
+      </c>
+      <c r="I14" s="9">
         <v>198</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
-      <c r="BM15" s="3"/>
-      <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
-      <c r="BQ15" s="3"/>
-      <c r="BR15" s="3"/>
-      <c r="BS15" s="3"/>
-      <c r="BT15" s="3"/>
-      <c r="BU15" s="3"/>
-      <c r="BV15" s="3"/>
-      <c r="BW15" s="3"/>
-      <c r="BX15" s="3"/>
-      <c r="BY15" s="3"/>
-      <c r="BZ15" s="3"/>
-      <c r="CA15" s="3"/>
-      <c r="CB15" s="3"/>
-      <c r="CC15" s="3"/>
-      <c r="CD15" s="3"/>
-      <c r="CE15" s="3"/>
-      <c r="CF15" s="3"/>
-      <c r="CG15" s="3"/>
-      <c r="CH15" s="3"/>
-    </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9">
+        <v>199</v>
+      </c>
+      <c r="L14" s="9">
+        <v>228</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="9"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="9"/>
+      <c r="CA14" s="9"/>
+      <c r="CB14" s="9"/>
+      <c r="CC14" s="9"/>
+      <c r="CD14" s="9"/>
+      <c r="CE14" s="9"/>
+      <c r="CF14" s="9"/>
+      <c r="CG14" s="9"/>
+      <c r="CH14" s="9"/>
+      <c r="CI14" s="9"/>
+      <c r="CJ14" s="9"/>
+      <c r="CK14" s="9"/>
+    </row>
+    <row r="15" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
         <v>1265</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
+        <v>1359</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1417</v>
+      </c>
+      <c r="I15" s="10">
         <v>1347</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
-      <c r="BJ16" s="3"/>
-      <c r="BK16" s="3"/>
-      <c r="BL16" s="3"/>
-      <c r="BM16" s="3"/>
-      <c r="BN16" s="3"/>
-      <c r="BO16" s="3"/>
-      <c r="BP16" s="3"/>
-      <c r="BQ16" s="3"/>
-      <c r="BR16" s="3"/>
-      <c r="BS16" s="3"/>
-      <c r="BT16" s="3"/>
-      <c r="BU16" s="3"/>
-      <c r="BV16" s="3"/>
-      <c r="BW16" s="3"/>
-      <c r="BX16" s="3"/>
-      <c r="BY16" s="3"/>
-      <c r="BZ16" s="3"/>
-      <c r="CA16" s="3"/>
-      <c r="CB16" s="3"/>
-      <c r="CC16" s="3"/>
-      <c r="CD16" s="3"/>
-      <c r="CE16" s="3"/>
-      <c r="CF16" s="3"/>
-      <c r="CG16" s="3"/>
-      <c r="CH16" s="3"/>
-    </row>
-    <row r="17" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="J15" s="10"/>
+      <c r="K15" s="10">
+        <v>1353</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1459</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="9"/>
+      <c r="BJ15" s="9"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="9"/>
+      <c r="BQ15" s="9"/>
+      <c r="BR15" s="9"/>
+      <c r="BS15" s="9"/>
+      <c r="BT15" s="9"/>
+      <c r="BU15" s="9"/>
+      <c r="BV15" s="9"/>
+      <c r="BW15" s="9"/>
+      <c r="BX15" s="9"/>
+      <c r="BY15" s="9"/>
+      <c r="BZ15" s="9"/>
+      <c r="CA15" s="9"/>
+      <c r="CB15" s="9"/>
+      <c r="CC15" s="9"/>
+      <c r="CD15" s="9"/>
+      <c r="CE15" s="9"/>
+      <c r="CF15" s="9"/>
+      <c r="CG15" s="9"/>
+      <c r="CH15" s="9"/>
+      <c r="CI15" s="9"/>
+      <c r="CJ15" s="9"/>
+      <c r="CK15" s="9"/>
+    </row>
+    <row r="16" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <v>838</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
+        <v>858</v>
+      </c>
+      <c r="H16" s="9">
+        <v>916</v>
+      </c>
+      <c r="I16" s="9">
         <v>879</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BL17" s="3"/>
-      <c r="BM17" s="3"/>
-      <c r="BN17" s="3"/>
-      <c r="BO17" s="3"/>
-      <c r="BP17" s="3"/>
-      <c r="BQ17" s="3"/>
-      <c r="BR17" s="3"/>
-      <c r="BS17" s="3"/>
-      <c r="BT17" s="3"/>
-      <c r="BU17" s="3"/>
-      <c r="BV17" s="3"/>
-      <c r="BW17" s="3"/>
-      <c r="BX17" s="3"/>
-      <c r="BY17" s="3"/>
-      <c r="BZ17" s="3"/>
-      <c r="CA17" s="3"/>
-      <c r="CB17" s="3"/>
-      <c r="CC17" s="3"/>
-      <c r="CD17" s="3"/>
-      <c r="CE17" s="3"/>
-      <c r="CF17" s="3"/>
-      <c r="CG17" s="3"/>
-      <c r="CH17" s="3"/>
-    </row>
-    <row r="18" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9">
+        <v>879</v>
+      </c>
+      <c r="L16" s="9">
+        <v>940</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="9"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="9"/>
+      <c r="BK16" s="9"/>
+      <c r="BL16" s="9"/>
+      <c r="BM16" s="9"/>
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="9"/>
+      <c r="BP16" s="9"/>
+      <c r="BQ16" s="9"/>
+      <c r="BR16" s="9"/>
+      <c r="BS16" s="9"/>
+      <c r="BT16" s="9"/>
+      <c r="BU16" s="9"/>
+      <c r="BV16" s="9"/>
+      <c r="BW16" s="9"/>
+      <c r="BX16" s="9"/>
+      <c r="BY16" s="9"/>
+      <c r="BZ16" s="9"/>
+      <c r="CA16" s="9"/>
+      <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
+      <c r="CD16" s="9"/>
+      <c r="CE16" s="9"/>
+      <c r="CF16" s="9"/>
+      <c r="CG16" s="9"/>
+      <c r="CH16" s="9"/>
+      <c r="CI16" s="9"/>
+      <c r="CJ16" s="9"/>
+      <c r="CK16" s="9"/>
+    </row>
+    <row r="17" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3">
-        <f t="shared" ref="C18:H18" si="2">+C16-C17</f>
+      <c r="C17" s="9">
+        <f t="shared" ref="C17:H17" si="2">+C15-C16</f>
         <v>0</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D17" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E17" s="9">
         <f t="shared" si="2"/>
         <v>427</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F17" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G17" s="9">
         <f t="shared" si="2"/>
+        <v>501</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="2"/>
+        <v>501</v>
+      </c>
+      <c r="I17" s="9">
+        <f>+I15-I16</f>
+        <v>468</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" ref="J17:N17" si="3">+J15-J16</f>
         <v>0</v>
       </c>
-      <c r="H18" s="3">
-        <f t="shared" si="2"/>
+      <c r="K17" s="9">
+        <f t="shared" si="3"/>
+        <v>474</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="3"/>
+        <v>519</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I18" s="3">
-        <f>+I16-I17</f>
-        <v>468</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" ref="J18" si="3">+J16-J17</f>
+      <c r="N17" s="9">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BL18" s="3"/>
-      <c r="BM18" s="3"/>
-      <c r="BN18" s="3"/>
-      <c r="BO18" s="3"/>
-      <c r="BP18" s="3"/>
-      <c r="BQ18" s="3"/>
-      <c r="BR18" s="3"/>
-      <c r="BS18" s="3"/>
-      <c r="BT18" s="3"/>
-      <c r="BU18" s="3"/>
-      <c r="BV18" s="3"/>
-      <c r="BW18" s="3"/>
-      <c r="BX18" s="3"/>
-      <c r="BY18" s="3"/>
-      <c r="BZ18" s="3"/>
-      <c r="CA18" s="3"/>
-      <c r="CB18" s="3"/>
-      <c r="CC18" s="3"/>
-      <c r="CD18" s="3"/>
-      <c r="CE18" s="3"/>
-      <c r="CF18" s="3"/>
-      <c r="CG18" s="3"/>
-      <c r="CH18" s="3"/>
-    </row>
-    <row r="19" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="9"/>
+      <c r="BG17" s="9"/>
+      <c r="BH17" s="9"/>
+      <c r="BI17" s="9"/>
+      <c r="BJ17" s="9"/>
+      <c r="BK17" s="9"/>
+      <c r="BL17" s="9"/>
+      <c r="BM17" s="9"/>
+      <c r="BN17" s="9"/>
+      <c r="BO17" s="9"/>
+      <c r="BP17" s="9"/>
+      <c r="BQ17" s="9"/>
+      <c r="BR17" s="9"/>
+      <c r="BS17" s="9"/>
+      <c r="BT17" s="9"/>
+      <c r="BU17" s="9"/>
+      <c r="BV17" s="9"/>
+      <c r="BW17" s="9"/>
+      <c r="BX17" s="9"/>
+      <c r="BY17" s="9"/>
+      <c r="BZ17" s="9"/>
+      <c r="CA17" s="9"/>
+      <c r="CB17" s="9"/>
+      <c r="CC17" s="9"/>
+      <c r="CD17" s="9"/>
+      <c r="CE17" s="9"/>
+      <c r="CF17" s="9"/>
+      <c r="CG17" s="9"/>
+      <c r="CH17" s="9"/>
+      <c r="CI17" s="9"/>
+      <c r="CJ17" s="9"/>
+      <c r="CK17" s="9"/>
+    </row>
+    <row r="18" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
         <v>494</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>475</v>
+      </c>
+      <c r="H18" s="9">
+        <v>439</v>
+      </c>
+      <c r="I18" s="9">
         <v>515</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-      <c r="BJ19" s="3"/>
-      <c r="BK19" s="3"/>
-      <c r="BL19" s="3"/>
-      <c r="BM19" s="3"/>
-      <c r="BN19" s="3"/>
-      <c r="BO19" s="3"/>
-      <c r="BP19" s="3"/>
-      <c r="BQ19" s="3"/>
-      <c r="BR19" s="3"/>
-      <c r="BS19" s="3"/>
-      <c r="BT19" s="3"/>
-      <c r="BU19" s="3"/>
-      <c r="BV19" s="3"/>
-      <c r="BW19" s="3"/>
-      <c r="BX19" s="3"/>
-      <c r="BY19" s="3"/>
-      <c r="BZ19" s="3"/>
-      <c r="CA19" s="3"/>
-      <c r="CB19" s="3"/>
-      <c r="CC19" s="3"/>
-      <c r="CD19" s="3"/>
-      <c r="CE19" s="3"/>
-      <c r="CF19" s="3"/>
-      <c r="CG19" s="3"/>
-      <c r="CH19" s="3"/>
-    </row>
-    <row r="20" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9">
+        <v>454</v>
+      </c>
+      <c r="L18" s="9">
+        <v>478</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
+      <c r="BF18" s="9"/>
+      <c r="BG18" s="9"/>
+      <c r="BH18" s="9"/>
+      <c r="BI18" s="9"/>
+      <c r="BJ18" s="9"/>
+      <c r="BK18" s="9"/>
+      <c r="BL18" s="9"/>
+      <c r="BM18" s="9"/>
+      <c r="BN18" s="9"/>
+      <c r="BO18" s="9"/>
+      <c r="BP18" s="9"/>
+      <c r="BQ18" s="9"/>
+      <c r="BR18" s="9"/>
+      <c r="BS18" s="9"/>
+      <c r="BT18" s="9"/>
+      <c r="BU18" s="9"/>
+      <c r="BV18" s="9"/>
+      <c r="BW18" s="9"/>
+      <c r="BX18" s="9"/>
+      <c r="BY18" s="9"/>
+      <c r="BZ18" s="9"/>
+      <c r="CA18" s="9"/>
+      <c r="CB18" s="9"/>
+      <c r="CC18" s="9"/>
+      <c r="CD18" s="9"/>
+      <c r="CE18" s="9"/>
+      <c r="CF18" s="9"/>
+      <c r="CG18" s="9"/>
+      <c r="CH18" s="9"/>
+      <c r="CI18" s="9"/>
+      <c r="CJ18" s="9"/>
+      <c r="CK18" s="9"/>
+    </row>
+    <row r="19" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3">
-        <f t="shared" ref="C20:H20" si="4">+C18-C19</f>
+      <c r="C19" s="9">
+        <f t="shared" ref="C19:H19" si="4">+C17-C18</f>
         <v>0</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D19" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E19" s="9">
         <f t="shared" si="4"/>
         <v>-67</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F19" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G19" s="9">
         <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="I19" s="9">
+        <f>+I17-I18</f>
+        <v>-47</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" ref="J19:O19" si="5">+J17-J18</f>
         <v>0</v>
       </c>
-      <c r="H20" s="3">
-        <f t="shared" si="4"/>
+      <c r="K19" s="9">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I20" s="3">
-        <f>+I18-I19</f>
-        <v>-47</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" ref="J20" si="5">+J18-J19</f>
+      <c r="N19" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
-      <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="3"/>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BI20" s="3"/>
-      <c r="BJ20" s="3"/>
-      <c r="BK20" s="3"/>
-      <c r="BL20" s="3"/>
-      <c r="BM20" s="3"/>
-      <c r="BN20" s="3"/>
-      <c r="BO20" s="3"/>
-      <c r="BP20" s="3"/>
-      <c r="BQ20" s="3"/>
-      <c r="BR20" s="3"/>
-      <c r="BS20" s="3"/>
-      <c r="BT20" s="3"/>
-      <c r="BU20" s="3"/>
-      <c r="BV20" s="3"/>
-      <c r="BW20" s="3"/>
-      <c r="BX20" s="3"/>
-      <c r="BY20" s="3"/>
-      <c r="BZ20" s="3"/>
-      <c r="CA20" s="3"/>
-      <c r="CB20" s="3"/>
-      <c r="CC20" s="3"/>
-      <c r="CD20" s="3"/>
-      <c r="CE20" s="3"/>
-      <c r="CF20" s="3"/>
-      <c r="CG20" s="3"/>
-      <c r="CH20" s="3"/>
-    </row>
-    <row r="21" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+      <c r="O19" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="9"/>
+      <c r="BF19" s="9"/>
+      <c r="BG19" s="9"/>
+      <c r="BH19" s="9"/>
+      <c r="BI19" s="9"/>
+      <c r="BJ19" s="9"/>
+      <c r="BK19" s="9"/>
+      <c r="BL19" s="9"/>
+      <c r="BM19" s="9"/>
+      <c r="BN19" s="9"/>
+      <c r="BO19" s="9"/>
+      <c r="BP19" s="9"/>
+      <c r="BQ19" s="9"/>
+      <c r="BR19" s="9"/>
+      <c r="BS19" s="9"/>
+      <c r="BT19" s="9"/>
+      <c r="BU19" s="9"/>
+      <c r="BV19" s="9"/>
+      <c r="BW19" s="9"/>
+      <c r="BX19" s="9"/>
+      <c r="BY19" s="9"/>
+      <c r="BZ19" s="9"/>
+      <c r="CA19" s="9"/>
+      <c r="CB19" s="9"/>
+      <c r="CC19" s="9"/>
+      <c r="CD19" s="9"/>
+      <c r="CE19" s="9"/>
+      <c r="CF19" s="9"/>
+      <c r="CG19" s="9"/>
+      <c r="CH19" s="9"/>
+      <c r="CI19" s="9"/>
+      <c r="CJ19" s="9"/>
+      <c r="CK19" s="9"/>
+    </row>
+    <row r="20" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
         <v>26</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9">
         <v>22</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3"/>
-      <c r="BI21" s="3"/>
-      <c r="BJ21" s="3"/>
-      <c r="BK21" s="3"/>
-      <c r="BL21" s="3"/>
-      <c r="BM21" s="3"/>
-      <c r="BN21" s="3"/>
-      <c r="BO21" s="3"/>
-      <c r="BP21" s="3"/>
-      <c r="BQ21" s="3"/>
-      <c r="BR21" s="3"/>
-      <c r="BS21" s="3"/>
-      <c r="BT21" s="3"/>
-      <c r="BU21" s="3"/>
-      <c r="BV21" s="3"/>
-      <c r="BW21" s="3"/>
-      <c r="BX21" s="3"/>
-      <c r="BY21" s="3"/>
-      <c r="BZ21" s="3"/>
-      <c r="CA21" s="3"/>
-      <c r="CB21" s="3"/>
-      <c r="CC21" s="3"/>
-      <c r="CD21" s="3"/>
-      <c r="CE21" s="3"/>
-      <c r="CF21" s="3"/>
-      <c r="CG21" s="3"/>
-      <c r="CH21" s="3"/>
-    </row>
-    <row r="22" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+      <c r="H20" s="9">
+        <v>21</v>
+      </c>
+      <c r="I20" s="9">
+        <v>22</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9">
+        <v>17</v>
+      </c>
+      <c r="L20" s="9">
+        <v>18</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="9"/>
+      <c r="BI20" s="9"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="9"/>
+      <c r="BM20" s="9"/>
+      <c r="BN20" s="9"/>
+      <c r="BO20" s="9"/>
+      <c r="BP20" s="9"/>
+      <c r="BQ20" s="9"/>
+      <c r="BR20" s="9"/>
+      <c r="BS20" s="9"/>
+      <c r="BT20" s="9"/>
+      <c r="BU20" s="9"/>
+      <c r="BV20" s="9"/>
+      <c r="BW20" s="9"/>
+      <c r="BX20" s="9"/>
+      <c r="BY20" s="9"/>
+      <c r="BZ20" s="9"/>
+      <c r="CA20" s="9"/>
+      <c r="CB20" s="9"/>
+      <c r="CC20" s="9"/>
+      <c r="CD20" s="9"/>
+      <c r="CE20" s="9"/>
+      <c r="CF20" s="9"/>
+      <c r="CG20" s="9"/>
+      <c r="CH20" s="9"/>
+      <c r="CI20" s="9"/>
+      <c r="CJ20" s="9"/>
+      <c r="CK20" s="9"/>
+    </row>
+    <row r="21" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9">
         <v>0</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
         <v>-1</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
-      <c r="BL22" s="3"/>
-      <c r="BM22" s="3"/>
-      <c r="BN22" s="3"/>
-      <c r="BO22" s="3"/>
-      <c r="BP22" s="3"/>
-      <c r="BQ22" s="3"/>
-      <c r="BR22" s="3"/>
-      <c r="BS22" s="3"/>
-      <c r="BT22" s="3"/>
-      <c r="BU22" s="3"/>
-      <c r="BV22" s="3"/>
-      <c r="BW22" s="3"/>
-      <c r="BX22" s="3"/>
-      <c r="BY22" s="3"/>
-      <c r="BZ22" s="3"/>
-      <c r="CA22" s="3"/>
-      <c r="CB22" s="3"/>
-      <c r="CC22" s="3"/>
-      <c r="CD22" s="3"/>
-      <c r="CE22" s="3"/>
-      <c r="CF22" s="3"/>
-      <c r="CG22" s="3"/>
-      <c r="CH22" s="3"/>
-    </row>
-    <row r="23" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9">
+        <v>3</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
+      <c r="BF21" s="9"/>
+      <c r="BG21" s="9"/>
+      <c r="BH21" s="9"/>
+      <c r="BI21" s="9"/>
+      <c r="BJ21" s="9"/>
+      <c r="BK21" s="9"/>
+      <c r="BL21" s="9"/>
+      <c r="BM21" s="9"/>
+      <c r="BN21" s="9"/>
+      <c r="BO21" s="9"/>
+      <c r="BP21" s="9"/>
+      <c r="BQ21" s="9"/>
+      <c r="BR21" s="9"/>
+      <c r="BS21" s="9"/>
+      <c r="BT21" s="9"/>
+      <c r="BU21" s="9"/>
+      <c r="BV21" s="9"/>
+      <c r="BW21" s="9"/>
+      <c r="BX21" s="9"/>
+      <c r="BY21" s="9"/>
+      <c r="BZ21" s="9"/>
+      <c r="CA21" s="9"/>
+      <c r="CB21" s="9"/>
+      <c r="CC21" s="9"/>
+      <c r="CD21" s="9"/>
+      <c r="CE21" s="9"/>
+      <c r="CF21" s="9"/>
+      <c r="CG21" s="9"/>
+      <c r="CH21" s="9"/>
+      <c r="CI21" s="9"/>
+      <c r="CJ21" s="9"/>
+      <c r="CK21" s="9"/>
+    </row>
+    <row r="22" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="3">
-        <f t="shared" ref="C23:H23" si="6">+C20-C21+C22</f>
+      <c r="C22" s="9">
+        <f t="shared" ref="C22:H22" si="6">+C19-C20+C21</f>
         <v>0</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D22" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E22" s="9">
         <f t="shared" si="6"/>
         <v>-93</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F22" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G22" s="9">
         <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="I22" s="9">
+        <f>+I19-I20+I21</f>
+        <v>-70</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" ref="J22:N22" si="7">+J19-J20+J21</f>
         <v>0</v>
       </c>
-      <c r="H23" s="3">
-        <f t="shared" si="6"/>
+      <c r="K22" s="9">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I23" s="3">
-        <f>+I20-I21+I22</f>
-        <v>-70</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" ref="J23" si="7">+J20-J21+J22</f>
+      <c r="N22" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
-      <c r="AW23" s="3"/>
-      <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
-      <c r="BB23" s="3"/>
-      <c r="BC23" s="3"/>
-      <c r="BD23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="3"/>
-      <c r="BI23" s="3"/>
-      <c r="BJ23" s="3"/>
-      <c r="BK23" s="3"/>
-      <c r="BL23" s="3"/>
-      <c r="BM23" s="3"/>
-      <c r="BN23" s="3"/>
-      <c r="BO23" s="3"/>
-      <c r="BP23" s="3"/>
-      <c r="BQ23" s="3"/>
-      <c r="BR23" s="3"/>
-      <c r="BS23" s="3"/>
-      <c r="BT23" s="3"/>
-      <c r="BU23" s="3"/>
-      <c r="BV23" s="3"/>
-      <c r="BW23" s="3"/>
-      <c r="BX23" s="3"/>
-      <c r="BY23" s="3"/>
-      <c r="BZ23" s="3"/>
-      <c r="CA23" s="3"/>
-      <c r="CB23" s="3"/>
-      <c r="CC23" s="3"/>
-      <c r="CD23" s="3"/>
-      <c r="CE23" s="3"/>
-      <c r="CF23" s="3"/>
-      <c r="CG23" s="3"/>
-      <c r="CH23" s="3"/>
-    </row>
-    <row r="24" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="9"/>
+      <c r="BH22" s="9"/>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="9"/>
+      <c r="BN22" s="9"/>
+      <c r="BO22" s="9"/>
+      <c r="BP22" s="9"/>
+      <c r="BQ22" s="9"/>
+      <c r="BR22" s="9"/>
+      <c r="BS22" s="9"/>
+      <c r="BT22" s="9"/>
+      <c r="BU22" s="9"/>
+      <c r="BV22" s="9"/>
+      <c r="BW22" s="9"/>
+      <c r="BX22" s="9"/>
+      <c r="BY22" s="9"/>
+      <c r="BZ22" s="9"/>
+      <c r="CA22" s="9"/>
+      <c r="CB22" s="9"/>
+      <c r="CC22" s="9"/>
+      <c r="CD22" s="9"/>
+      <c r="CE22" s="9"/>
+      <c r="CF22" s="9"/>
+      <c r="CG22" s="9"/>
+      <c r="CH22" s="9"/>
+      <c r="CI22" s="9"/>
+      <c r="CJ22" s="9"/>
+      <c r="CK22" s="9"/>
+    </row>
+    <row r="23" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9">
         <v>-22</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9">
+        <v>8</v>
+      </c>
+      <c r="H23" s="9">
+        <v>9</v>
+      </c>
+      <c r="I23" s="9">
         <v>-15</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
-      <c r="BC24" s="3"/>
-      <c r="BD24" s="3"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="3"/>
-      <c r="BJ24" s="3"/>
-      <c r="BK24" s="3"/>
-      <c r="BL24" s="3"/>
-      <c r="BM24" s="3"/>
-      <c r="BN24" s="3"/>
-      <c r="BO24" s="3"/>
-      <c r="BP24" s="3"/>
-      <c r="BQ24" s="3"/>
-      <c r="BR24" s="3"/>
-      <c r="BS24" s="3"/>
-      <c r="BT24" s="3"/>
-      <c r="BU24" s="3"/>
-      <c r="BV24" s="3"/>
-      <c r="BW24" s="3"/>
-      <c r="BX24" s="3"/>
-      <c r="BY24" s="3"/>
-      <c r="BZ24" s="3"/>
-      <c r="CA24" s="3"/>
-      <c r="CB24" s="3"/>
-      <c r="CC24" s="3"/>
-      <c r="CD24" s="3"/>
-      <c r="CE24" s="3"/>
-      <c r="CF24" s="3"/>
-      <c r="CG24" s="3"/>
-      <c r="CH24" s="3"/>
-    </row>
-    <row r="25" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9">
+        <v>3</v>
+      </c>
+      <c r="L23" s="9">
+        <v>6</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9"/>
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="9"/>
+      <c r="BK23" s="9"/>
+      <c r="BL23" s="9"/>
+      <c r="BM23" s="9"/>
+      <c r="BN23" s="9"/>
+      <c r="BO23" s="9"/>
+      <c r="BP23" s="9"/>
+      <c r="BQ23" s="9"/>
+      <c r="BR23" s="9"/>
+      <c r="BS23" s="9"/>
+      <c r="BT23" s="9"/>
+      <c r="BU23" s="9"/>
+      <c r="BV23" s="9"/>
+      <c r="BW23" s="9"/>
+      <c r="BX23" s="9"/>
+      <c r="BY23" s="9"/>
+      <c r="BZ23" s="9"/>
+      <c r="CA23" s="9"/>
+      <c r="CB23" s="9"/>
+      <c r="CC23" s="9"/>
+      <c r="CD23" s="9"/>
+      <c r="CE23" s="9"/>
+      <c r="CF23" s="9"/>
+      <c r="CG23" s="9"/>
+      <c r="CH23" s="9"/>
+      <c r="CI23" s="9"/>
+      <c r="CJ23" s="9"/>
+      <c r="CK23" s="9"/>
+    </row>
+    <row r="24" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="3">
-        <f t="shared" ref="C25:H25" si="8">+C23-C24</f>
+      <c r="C24" s="9">
+        <f t="shared" ref="C24:H24" si="8">+C22-C23</f>
         <v>0</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D24" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E24" s="9">
         <f t="shared" si="8"/>
         <v>-71</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F24" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G24" s="9">
         <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="I24" s="9">
+        <f>+I22-I23</f>
+        <v>-55</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" ref="J24:N24" si="9">+J22-J23</f>
         <v>0</v>
       </c>
-      <c r="H25" s="3">
-        <f t="shared" si="8"/>
+      <c r="K24" s="9">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I25" s="3">
-        <f>+I23-I24</f>
-        <v>-55</v>
-      </c>
-      <c r="J25" s="3">
-        <f t="shared" ref="J25" si="9">+J23-J24</f>
+      <c r="N24" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-      <c r="AW25" s="3"/>
-      <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="3"/>
-      <c r="BA25" s="3"/>
-      <c r="BB25" s="3"/>
-      <c r="BC25" s="3"/>
-      <c r="BD25" s="3"/>
-      <c r="BE25" s="3"/>
-      <c r="BF25" s="3"/>
-      <c r="BG25" s="3"/>
-      <c r="BH25" s="3"/>
-      <c r="BI25" s="3"/>
-      <c r="BJ25" s="3"/>
-      <c r="BK25" s="3"/>
-      <c r="BL25" s="3"/>
-      <c r="BM25" s="3"/>
-      <c r="BN25" s="3"/>
-      <c r="BO25" s="3"/>
-      <c r="BP25" s="3"/>
-      <c r="BQ25" s="3"/>
-      <c r="BR25" s="3"/>
-      <c r="BS25" s="3"/>
-      <c r="BT25" s="3"/>
-      <c r="BU25" s="3"/>
-      <c r="BV25" s="3"/>
-      <c r="BW25" s="3"/>
-      <c r="BX25" s="3"/>
-      <c r="BY25" s="3"/>
-      <c r="BZ25" s="3"/>
-      <c r="CA25" s="3"/>
-      <c r="CB25" s="3"/>
-      <c r="CC25" s="3"/>
-      <c r="CD25" s="3"/>
-      <c r="CE25" s="3"/>
-      <c r="CF25" s="3"/>
-      <c r="CG25" s="3"/>
-      <c r="CH25" s="3"/>
-    </row>
-    <row r="26" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="9"/>
+      <c r="BH24" s="9"/>
+      <c r="BI24" s="9"/>
+      <c r="BJ24" s="9"/>
+      <c r="BK24" s="9"/>
+      <c r="BL24" s="9"/>
+      <c r="BM24" s="9"/>
+      <c r="BN24" s="9"/>
+      <c r="BO24" s="9"/>
+      <c r="BP24" s="9"/>
+      <c r="BQ24" s="9"/>
+      <c r="BR24" s="9"/>
+      <c r="BS24" s="9"/>
+      <c r="BT24" s="9"/>
+      <c r="BU24" s="9"/>
+      <c r="BV24" s="9"/>
+      <c r="BW24" s="9"/>
+      <c r="BX24" s="9"/>
+      <c r="BY24" s="9"/>
+      <c r="BZ24" s="9"/>
+      <c r="CA24" s="9"/>
+      <c r="CB24" s="9"/>
+      <c r="CC24" s="9"/>
+      <c r="CD24" s="9"/>
+      <c r="CE24" s="9"/>
+      <c r="CF24" s="9"/>
+      <c r="CG24" s="9"/>
+      <c r="CH24" s="9"/>
+      <c r="CI24" s="9"/>
+      <c r="CJ24" s="9"/>
+      <c r="CK24" s="9"/>
+    </row>
+    <row r="25" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9">
         <v>0</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
         <v>1</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="3"/>
-      <c r="BC26" s="3"/>
-      <c r="BD26" s="3"/>
-      <c r="BE26" s="3"/>
-      <c r="BF26" s="3"/>
-      <c r="BG26" s="3"/>
-      <c r="BH26" s="3"/>
-      <c r="BI26" s="3"/>
-      <c r="BJ26" s="3"/>
-      <c r="BK26" s="3"/>
-      <c r="BL26" s="3"/>
-      <c r="BM26" s="3"/>
-      <c r="BN26" s="3"/>
-      <c r="BO26" s="3"/>
-      <c r="BP26" s="3"/>
-      <c r="BQ26" s="3"/>
-      <c r="BR26" s="3"/>
-      <c r="BS26" s="3"/>
-      <c r="BT26" s="3"/>
-      <c r="BU26" s="3"/>
-      <c r="BV26" s="3"/>
-      <c r="BW26" s="3"/>
-      <c r="BX26" s="3"/>
-      <c r="BY26" s="3"/>
-      <c r="BZ26" s="3"/>
-      <c r="CA26" s="3"/>
-      <c r="CB26" s="3"/>
-      <c r="CC26" s="3"/>
-      <c r="CD26" s="3"/>
-      <c r="CE26" s="3"/>
-      <c r="CF26" s="3"/>
-      <c r="CG26" s="3"/>
-      <c r="CH26" s="3"/>
-    </row>
-    <row r="27" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9">
+        <v>5</v>
+      </c>
+      <c r="L25" s="9">
+        <v>2</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="9"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="9"/>
+      <c r="BE25" s="9"/>
+      <c r="BF25" s="9"/>
+      <c r="BG25" s="9"/>
+      <c r="BH25" s="9"/>
+      <c r="BI25" s="9"/>
+      <c r="BJ25" s="9"/>
+      <c r="BK25" s="9"/>
+      <c r="BL25" s="9"/>
+      <c r="BM25" s="9"/>
+      <c r="BN25" s="9"/>
+      <c r="BO25" s="9"/>
+      <c r="BP25" s="9"/>
+      <c r="BQ25" s="9"/>
+      <c r="BR25" s="9"/>
+      <c r="BS25" s="9"/>
+      <c r="BT25" s="9"/>
+      <c r="BU25" s="9"/>
+      <c r="BV25" s="9"/>
+      <c r="BW25" s="9"/>
+      <c r="BX25" s="9"/>
+      <c r="BY25" s="9"/>
+      <c r="BZ25" s="9"/>
+      <c r="CA25" s="9"/>
+      <c r="CB25" s="9"/>
+      <c r="CC25" s="9"/>
+      <c r="CD25" s="9"/>
+      <c r="CE25" s="9"/>
+      <c r="CF25" s="9"/>
+      <c r="CG25" s="9"/>
+      <c r="CH25" s="9"/>
+      <c r="CI25" s="9"/>
+      <c r="CJ25" s="9"/>
+      <c r="CK25" s="9"/>
+    </row>
+    <row r="26" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" ref="C27:H27" si="10">+C25-C26</f>
+      <c r="C26" s="9">
+        <f t="shared" ref="C26:H26" si="10">+C24-C25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D26" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E26" s="9">
         <f t="shared" si="10"/>
         <v>-71</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F26" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G26" s="9">
         <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="I26" s="9">
+        <f>+I24-I25</f>
+        <v>-56</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:N26" si="11">+J24-J25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="3">
-        <f t="shared" si="10"/>
+      <c r="K26" s="9">
+        <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I27" s="3">
-        <f>+I25-I26</f>
-        <v>-56</v>
-      </c>
-      <c r="J27" s="3">
-        <f t="shared" ref="J27" si="11">+J25-J26</f>
+      <c r="N26" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="9"/>
+      <c r="BH26" s="9"/>
+      <c r="BI26" s="9"/>
+      <c r="BJ26" s="9"/>
+      <c r="BK26" s="9"/>
+      <c r="BL26" s="9"/>
+      <c r="BM26" s="9"/>
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="9"/>
+      <c r="BP26" s="9"/>
+      <c r="BQ26" s="9"/>
+      <c r="BR26" s="9"/>
+      <c r="BS26" s="9"/>
+      <c r="BT26" s="9"/>
+      <c r="BU26" s="9"/>
+      <c r="BV26" s="9"/>
+      <c r="BW26" s="9"/>
+      <c r="BX26" s="9"/>
+      <c r="BY26" s="9"/>
+      <c r="BZ26" s="9"/>
+      <c r="CA26" s="9"/>
+      <c r="CB26" s="9"/>
+      <c r="CC26" s="9"/>
+      <c r="CD26" s="9"/>
+      <c r="CE26" s="9"/>
+      <c r="CF26" s="9"/>
+      <c r="CG26" s="9"/>
+      <c r="CH26" s="9"/>
+      <c r="CI26" s="9"/>
+      <c r="CJ26" s="9"/>
+      <c r="CK26" s="9"/>
+    </row>
+    <row r="27" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2653,19 +3501,58 @@
       <c r="CG27" s="3"/>
       <c r="CH27" s="3"/>
     </row>
-    <row r="28" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+    <row r="28" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="6" t="e">
+        <f t="shared" ref="C28:D28" si="12">+C26/C29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="6">
+        <f>+E26/E29</f>
+        <v>-0.92207792207792205</v>
+      </c>
+      <c r="F28" s="6" t="e">
+        <f t="shared" ref="F28:N28" si="13">+F26/F29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="13"/>
+        <v>-5.128205128205128E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="13"/>
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="13"/>
+        <v>-0.70886075949367089</v>
+      </c>
+      <c r="J28" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="13"/>
+        <v>-2.5316455696202531E-2</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="13"/>
+        <v>0.2</v>
+      </c>
+      <c r="M28" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -2739,44 +3626,32 @@
       <c r="CG28" s="3"/>
       <c r="CH28" s="3"/>
     </row>
-    <row r="29" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
-      <c r="C29" s="7" t="e">
-        <f t="shared" ref="C29:D29" si="12">+C27/C30</f>
-        <v>#DIV/0!</v>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>77</v>
       </c>
-      <c r="D29" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3">
+        <v>78</v>
       </c>
-      <c r="E29" s="7">
-        <f>+E27/E30</f>
-        <v>-0.92207792207792205</v>
+      <c r="H29" s="3">
+        <v>78</v>
       </c>
-      <c r="F29" s="7" t="e">
-        <f t="shared" ref="F29:J29" si="13">+F27/F30</f>
-        <v>#DIV/0!</v>
+      <c r="I29" s="3">
+        <v>79</v>
       </c>
-      <c r="G29" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3">
+        <v>79</v>
       </c>
-      <c r="H29" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="L29" s="3">
+        <v>80</v>
       </c>
-      <c r="I29" s="7">
-        <f t="shared" si="13"/>
-        <v>-0.70886075949367089</v>
-      </c>
-      <c r="J29" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -2852,21 +3727,14 @@
       <c r="CG29" s="3"/>
       <c r="CH29" s="3"/>
     </row>
-    <row r="30" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="30" spans="2:89" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3">
-        <v>77</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3">
-        <v>79</v>
-      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2945,15 +3813,30 @@
       <c r="CG30" s="3"/>
       <c r="CH30" s="3"/>
     </row>
-    <row r="31" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="G31" s="7" t="e">
+        <f t="shared" ref="G31:H31" si="14">+G10/C10-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="7">
+        <f>+I10/E10-1</f>
+        <v>8.8365243004417948E-3</v>
+      </c>
+      <c r="J31" s="7" t="e">
+        <f>+J10/F10-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -3031,28 +3914,28 @@
       <c r="CG31" s="3"/>
       <c r="CH31" s="3"/>
     </row>
-    <row r="32" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:89" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="8" t="e">
-        <f t="shared" ref="G32:H32" si="14">+G11/C11-1</f>
+      <c r="G32" s="7" t="e">
+        <f t="shared" ref="G32:H35" si="15">+G12/C12-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="8" t="e">
-        <f t="shared" si="14"/>
+      <c r="H32" s="7" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="8">
-        <f>+I11/E11-1</f>
-        <v>8.8365243004417948E-3</v>
+      <c r="I32" s="7">
+        <f>+I12/E12-1</f>
+        <v>2.0746887966804906E-2</v>
       </c>
-      <c r="J32" s="8" t="e">
-        <f>+J11/F11-1</f>
+      <c r="J32" s="7" t="e">
+        <f>+J12/F12-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="3"/>
@@ -3134,26 +4017,26 @@
     </row>
     <row r="33" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="8" t="e">
-        <f t="shared" ref="G33:H36" si="15">+G13/C13-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="8" t="e">
+      <c r="G33" s="7" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="8">
-        <f>+I13/E13-1</f>
-        <v>2.0746887966804906E-2</v>
+      <c r="H33" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="8" t="e">
-        <f>+J13/F13-1</f>
+      <c r="I33" s="7">
+        <f t="shared" ref="I33:J35" si="16">+I13/E13-1</f>
+        <v>7.5916230366492199E-2</v>
+      </c>
+      <c r="J33" s="7" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="3"/>
@@ -3235,25 +4118,25 @@
     </row>
     <row r="34" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="8" t="e">
+      <c r="G34" s="7" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="8" t="e">
+      <c r="H34" s="7" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="8">
-        <f t="shared" ref="I34:J36" si="16">+I14/E14-1</f>
-        <v>7.5916230366492199E-2</v>
+      <c r="I34" s="7">
+        <f t="shared" si="16"/>
+        <v>0.23750000000000004</v>
       </c>
-      <c r="J34" s="8" t="e">
+      <c r="J34" s="7" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
@@ -3336,25 +4219,25 @@
     </row>
     <row r="35" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="8" t="e">
+      <c r="G35" s="7" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="8" t="e">
+      <c r="H35" s="7" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <f t="shared" si="16"/>
-        <v>0.23750000000000004</v>
+        <v>6.4822134387351849E-2</v>
       </c>
-      <c r="J35" s="8" t="e">
+      <c r="J35" s="7" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
@@ -3437,28 +4320,16 @@
     </row>
     <row r="36" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="8">
-        <f t="shared" si="16"/>
-        <v>6.4822134387351849E-2</v>
-      </c>
-      <c r="J36" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -3538,7 +4409,7 @@
     </row>
     <row r="37" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3627,7 +4498,7 @@
     </row>
     <row r="38" spans="2:86" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3715,9 +4586,6 @@
       <c r="CH38" s="3"/>
     </row>
     <row r="39" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -36483,92 +37351,6 @@
       <c r="CG419" s="3"/>
       <c r="CH419" s="3"/>
     </row>
-    <row r="420" spans="3:86" x14ac:dyDescent="0.2">
-      <c r="C420" s="3"/>
-      <c r="D420" s="3"/>
-      <c r="E420" s="3"/>
-      <c r="F420" s="3"/>
-      <c r="G420" s="3"/>
-      <c r="H420" s="3"/>
-      <c r="I420" s="3"/>
-      <c r="J420" s="3"/>
-      <c r="K420" s="3"/>
-      <c r="L420" s="3"/>
-      <c r="M420" s="3"/>
-      <c r="N420" s="3"/>
-      <c r="O420" s="3"/>
-      <c r="P420" s="3"/>
-      <c r="Q420" s="3"/>
-      <c r="R420" s="3"/>
-      <c r="S420" s="3"/>
-      <c r="T420" s="3"/>
-      <c r="U420" s="3"/>
-      <c r="V420" s="3"/>
-      <c r="W420" s="3"/>
-      <c r="X420" s="3"/>
-      <c r="Y420" s="3"/>
-      <c r="Z420" s="3"/>
-      <c r="AA420" s="3"/>
-      <c r="AB420" s="3"/>
-      <c r="AC420" s="3"/>
-      <c r="AD420" s="3"/>
-      <c r="AE420" s="3"/>
-      <c r="AF420" s="3"/>
-      <c r="AG420" s="3"/>
-      <c r="AH420" s="3"/>
-      <c r="AI420" s="3"/>
-      <c r="AJ420" s="3"/>
-      <c r="AK420" s="3"/>
-      <c r="AL420" s="3"/>
-      <c r="AM420" s="3"/>
-      <c r="AN420" s="3"/>
-      <c r="AO420" s="3"/>
-      <c r="AP420" s="3"/>
-      <c r="AQ420" s="3"/>
-      <c r="AR420" s="3"/>
-      <c r="AS420" s="3"/>
-      <c r="AT420" s="3"/>
-      <c r="AU420" s="3"/>
-      <c r="AV420" s="3"/>
-      <c r="AW420" s="3"/>
-      <c r="AX420" s="3"/>
-      <c r="AY420" s="3"/>
-      <c r="AZ420" s="3"/>
-      <c r="BA420" s="3"/>
-      <c r="BB420" s="3"/>
-      <c r="BC420" s="3"/>
-      <c r="BD420" s="3"/>
-      <c r="BE420" s="3"/>
-      <c r="BF420" s="3"/>
-      <c r="BG420" s="3"/>
-      <c r="BH420" s="3"/>
-      <c r="BI420" s="3"/>
-      <c r="BJ420" s="3"/>
-      <c r="BK420" s="3"/>
-      <c r="BL420" s="3"/>
-      <c r="BM420" s="3"/>
-      <c r="BN420" s="3"/>
-      <c r="BO420" s="3"/>
-      <c r="BP420" s="3"/>
-      <c r="BQ420" s="3"/>
-      <c r="BR420" s="3"/>
-      <c r="BS420" s="3"/>
-      <c r="BT420" s="3"/>
-      <c r="BU420" s="3"/>
-      <c r="BV420" s="3"/>
-      <c r="BW420" s="3"/>
-      <c r="BX420" s="3"/>
-      <c r="BY420" s="3"/>
-      <c r="BZ420" s="3"/>
-      <c r="CA420" s="3"/>
-      <c r="CB420" s="3"/>
-      <c r="CC420" s="3"/>
-      <c r="CD420" s="3"/>
-      <c r="CE420" s="3"/>
-      <c r="CF420" s="3"/>
-      <c r="CG420" s="3"/>
-      <c r="CH420" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8F02A12F-F5DD-4F1E-A486-2A56BC548541}"/>

--- a/VSCO.xlsx
+++ b/VSCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12B9C8F-0B46-4C43-91ED-DF977B361EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF83756C-574A-4DE8-B118-31736E8452C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{61D1022A-C31F-435A-9D37-34AD93DFA669}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{61D1022A-C31F-435A-9D37-34AD93DFA669}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -731,10 +731,10 @@
   <dimension ref="A1:CK419"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/VSCO.xlsx
+++ b/VSCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF83756C-574A-4DE8-B118-31736E8452C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778F08C9-E4DE-4004-B10F-B605F4FC0779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{61D1022A-C31F-435A-9D37-34AD93DFA669}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{61D1022A-C31F-435A-9D37-34AD93DFA669}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -211,13 +211,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -280,25 +286,31 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -638,7 +650,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -660,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>26.13</v>
+        <v>54.91</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -668,10 +680,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <v>80.164484999999999</v>
+        <v>80.268923999999998</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>51</v>
+      <c r="J3" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -683,7 +695,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>2094.6979930499997</v>
+        <v>4407.5666168399994</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -694,10 +706,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>188</v>
+        <v>249</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>51</v>
+      <c r="J5" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -705,11 +717,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <f>4+1048</f>
-        <v>1052</v>
+        <f>4+1347</f>
+        <v>1351</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>51</v>
+      <c r="J6" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -718,7 +730,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>2958.6979930499997</v>
+        <v>5509.5666168399994</v>
       </c>
     </row>
   </sheetData>
@@ -731,10 +743,10 @@
   <dimension ref="A1:CK419"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="N36" sqref="N36:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -813,7 +825,9 @@
       <c r="L3" s="9">
         <v>6907</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="M3" s="9">
+        <v>6914</v>
+      </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -917,7 +931,9 @@
       <c r="L4" s="9">
         <v>5305</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="9">
+        <v>5337</v>
+      </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -1021,7 +1037,9 @@
       <c r="L5" s="9">
         <v>763</v>
       </c>
-      <c r="M5" s="9"/>
+      <c r="M5" s="9">
+        <v>782</v>
+      </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -1125,7 +1143,9 @@
       <c r="L6" s="9">
         <v>24</v>
       </c>
-      <c r="M6" s="9"/>
+      <c r="M6" s="9">
+        <v>24</v>
+      </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -1229,7 +1249,9 @@
       <c r="L7" s="9">
         <v>63</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="9">
+        <v>70</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -1333,7 +1355,9 @@
       <c r="L8" s="9">
         <v>521</v>
       </c>
-      <c r="M8" s="9"/>
+      <c r="M8" s="9">
+        <v>505</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -1437,7 +1461,9 @@
       <c r="L9" s="9">
         <v>5</v>
       </c>
-      <c r="M9" s="9"/>
+      <c r="M9" s="9">
+        <v>6</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -1561,7 +1587,7 @@
       </c>
       <c r="M10" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1387</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" si="1"/>
@@ -1758,7 +1784,9 @@
       <c r="L12" s="9">
         <v>825</v>
       </c>
-      <c r="M12" s="9"/>
+      <c r="M12" s="9">
+        <v>778</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -1862,7 +1890,9 @@
       <c r="L13" s="9">
         <v>406</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="9">
+        <v>429</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -1966,7 +1996,9 @@
       <c r="L14" s="9">
         <v>228</v>
       </c>
-      <c r="M14" s="9"/>
+      <c r="M14" s="9">
+        <v>265</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -2070,7 +2102,9 @@
       <c r="L15" s="10">
         <v>1459</v>
       </c>
-      <c r="M15" s="9"/>
+      <c r="M15" s="10">
+        <v>1472</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -2174,7 +2208,9 @@
       <c r="L16" s="9">
         <v>940</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="M16" s="9">
+        <v>936</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -2298,7 +2334,7 @@
       </c>
       <c r="M17" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="N17" s="9">
         <f t="shared" si="3"/>
@@ -2406,7 +2442,9 @@
       <c r="L18" s="9">
         <v>478</v>
       </c>
-      <c r="M18" s="9"/>
+      <c r="M18" s="9">
+        <v>555</v>
+      </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
@@ -2530,7 +2568,7 @@
       </c>
       <c r="M19" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" si="5"/>
@@ -2641,7 +2679,9 @@
       <c r="L20" s="9">
         <v>18</v>
       </c>
-      <c r="M20" s="9"/>
+      <c r="M20" s="9">
+        <v>18</v>
+      </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
@@ -2745,7 +2785,9 @@
       <c r="L21" s="9">
         <v>1</v>
       </c>
-      <c r="M21" s="9"/>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -2869,7 +2911,7 @@
       </c>
       <c r="M22" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="7"/>
@@ -2977,7 +3019,9 @@
       <c r="L23" s="9">
         <v>6</v>
       </c>
-      <c r="M23" s="9"/>
+      <c r="M23" s="9">
+        <v>-6</v>
+      </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
@@ -3101,7 +3145,7 @@
       </c>
       <c r="M24" s="9">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="N24" s="9">
         <f t="shared" si="9"/>
@@ -3209,7 +3253,9 @@
       <c r="L25" s="9">
         <v>2</v>
       </c>
-      <c r="M25" s="9"/>
+      <c r="M25" s="9">
+        <v>6</v>
+      </c>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
@@ -3333,7 +3379,7 @@
       </c>
       <c r="M26" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="N26" s="9">
         <f t="shared" si="11"/>
@@ -3545,9 +3591,9 @@
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="M28" s="6" t="e">
+      <c r="M28" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>-0.46250000000000002</v>
       </c>
       <c r="N28" s="6" t="e">
         <f t="shared" si="13"/>
@@ -3652,7 +3698,9 @@
       <c r="L29" s="3">
         <v>80</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="3">
+        <v>80</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3834,13 +3882,25 @@
         <v>8.8365243004417948E-3</v>
       </c>
       <c r="J31" s="7" t="e">
-        <f>+J10/F10-1</f>
+        <f t="shared" ref="J31:N31" si="15">+J10/F10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="K31" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="15"/>
+        <v>2.1849963583393528E-3</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" si="15"/>
+        <v>1.2408759124087565E-2</v>
+      </c>
+      <c r="N31" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -3923,11 +3983,11 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="7" t="e">
-        <f t="shared" ref="G32:H35" si="15">+G12/C12-1</f>
+        <f t="shared" ref="G32:H35" si="16">+G12/C12-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="7">
@@ -3935,13 +3995,25 @@
         <v>2.0746887966804906E-2</v>
       </c>
       <c r="J32" s="7" t="e">
-        <f>+J12/F12-1</f>
+        <f t="shared" ref="J32:N35" si="17">+J12/F12-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="K32" s="7">
+        <f t="shared" si="17"/>
+        <v>-1.0973936899862813E-2</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" si="17"/>
+        <v>5.4200542005420127E-2</v>
+      </c>
+      <c r="N32" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -4024,25 +4096,37 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" ref="I33:J35" si="16">+I13/E13-1</f>
+        <f t="shared" ref="I33:J35" si="18">+I13/E13-1</f>
         <v>7.5916230366492199E-2</v>
       </c>
       <c r="J33" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="K33" s="7">
+        <f t="shared" si="17"/>
+        <v>-3.563474387527843E-2</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="17"/>
+        <v>-5.5813953488372148E-2</v>
+      </c>
+      <c r="M33" s="7">
+        <f t="shared" si="17"/>
+        <v>4.3795620437956151E-2</v>
+      </c>
+      <c r="N33" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -4125,25 +4209,37 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.23750000000000004</v>
       </c>
       <c r="J34" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="K34" s="7">
+        <f t="shared" si="17"/>
+        <v>9.9447513812154664E-2</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="17"/>
+        <v>0.21925133689839571</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="17"/>
+        <v>0.33838383838383845</v>
+      </c>
+      <c r="N34" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -4218,33 +4314,45 @@
       <c r="CH34" s="3"/>
     </row>
     <row r="35" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="7">
-        <f t="shared" si="16"/>
-        <v>6.4822134387351849E-2</v>
-      </c>
-      <c r="J35" s="7" t="e">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="H35" s="13" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="18"/>
+        <v>6.4822134387351849E-2</v>
+      </c>
+      <c r="J35" s="13" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="shared" si="17"/>
+        <v>-4.4150110375276164E-3</v>
+      </c>
+      <c r="L35" s="13">
+        <f t="shared" si="17"/>
+        <v>2.9640084685956136E-2</v>
+      </c>
+      <c r="M35" s="13">
+        <f t="shared" si="17"/>
+        <v>9.2798812175204137E-2</v>
+      </c>
+      <c r="N35" s="13" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -4322,18 +4430,54 @@
       <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="C36" s="7" t="e">
+        <f t="shared" ref="C36:M36" si="19">+C17/C15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.3375494071146245</v>
+      </c>
+      <c r="F36" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.36865342163355408</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.35356386732533523</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.34743875278396436</v>
+      </c>
+      <c r="J36" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.35033259423503327</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.3557230980123372</v>
+      </c>
+      <c r="M36" s="7">
+        <f>+M17/M15</f>
+        <v>0.3641304347826087</v>
+      </c>
+      <c r="N36" s="7" t="e">
+        <f>+N17/N15</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -4411,18 +4555,54 @@
       <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="C37" s="14" t="e">
+        <f t="shared" ref="C37:M37" si="20">+C19/C15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="20"/>
+        <v>-5.2964426877470355E-2</v>
+      </c>
+      <c r="F37" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="14">
+        <f t="shared" si="20"/>
+        <v>1.9131714495952908E-2</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="20"/>
+        <v>4.3754410726887794E-2</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="20"/>
+        <v>-3.4892353377876766E-2</v>
+      </c>
+      <c r="J37" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="14">
+        <f t="shared" si="20"/>
+        <v>1.4781966001478197E-2</v>
+      </c>
+      <c r="L37" s="14">
+        <f t="shared" si="20"/>
+        <v>2.8101439342015078E-2</v>
+      </c>
+      <c r="M37" s="14">
+        <f>+M19/M15</f>
+        <v>-1.2907608695652174E-2</v>
+      </c>
+      <c r="N37" s="14" t="e">
+        <f>+N19/N15</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -4500,18 +4680,54 @@
       <c r="B38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="C38" s="7" t="e">
+        <f t="shared" ref="C38:M38" si="21">+C25/C24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="7" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="7" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="21"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="21"/>
+        <v>-1.8181818181818181E-2</v>
+      </c>
+      <c r="J38" s="7" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" si="21"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="21"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M38" s="7">
+        <f>+M25/M24</f>
+        <v>-0.19354838709677419</v>
+      </c>
+      <c r="N38" s="7" t="e">
+        <f>+N25/N24</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
